--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_F25DC773A252ABDACC104869B9DF585A5BDE5907" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D54A1240-DE9C-427D-99DC-7469D1D8B0EE}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="11_F25DC773A252ABDACC104869B9DF585A5BDE5907" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{46483C3F-B7DA-4E5E-86DF-B60A3E1F8AC8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Lay's</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>7-jun</t>
+  </si>
+  <si>
+    <t>13-jun</t>
   </si>
 </sst>
 </file>
@@ -124,7 +127,152 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -400,19 +548,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -428,8 +577,11 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -445,8 +597,11 @@
       <c r="E2" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -462,8 +617,11 @@
       <c r="E3" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -479,8 +637,11 @@
       <c r="E4" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -496,8 +657,11 @@
       <c r="E5" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -513,8 +677,11 @@
       <c r="E6" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -530,8 +697,11 @@
       <c r="E7" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -547,8 +717,11 @@
       <c r="E8" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -564,8 +737,11 @@
       <c r="E9" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -581,8 +757,11 @@
       <c r="E10" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -597,6 +776,9 @@
       </c>
       <c r="E11" s="2">
         <v>12</v>
+      </c>
+      <c r="F11" s="2">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_F25DC773A252ABDACC104869B9DF585A5BDE5907" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{46483C3F-B7DA-4E5E-86DF-B60A3E1F8AC8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Lay's</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>13-jun</t>
+  </si>
+  <si>
+    <t>14-jun</t>
   </si>
 </sst>
 </file>
@@ -127,152 +130,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -548,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +419,7 @@
     <col min="9" max="9" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -580,8 +438,11 @@
       <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -600,8 +461,11 @@
       <c r="F2" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -620,8 +484,11 @@
       <c r="F3" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -640,8 +507,11 @@
       <c r="F4" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -660,8 +530,11 @@
       <c r="F5" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -680,8 +553,11 @@
       <c r="F6" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -700,8 +576,11 @@
       <c r="F7" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -720,8 +599,11 @@
       <c r="F8" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -740,8 +622,11 @@
       <c r="F9" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -760,8 +645,11 @@
       <c r="F10" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -779,6 +667,9 @@
       </c>
       <c r="F11" s="2">
         <v>11</v>
+      </c>
+      <c r="G11" s="2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A52C842F-6786-4024-8DC9-6A99185EF7C7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Lay's</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>14-jun</t>
+  </si>
+  <si>
+    <t>15-jun</t>
   </si>
 </sst>
 </file>
@@ -406,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,7 +422,7 @@
     <col min="9" max="9" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -441,8 +444,11 @@
       <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -464,8 +470,11 @@
       <c r="G2" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -487,8 +496,11 @@
       <c r="G3" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -510,8 +522,11 @@
       <c r="G4" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -533,8 +548,11 @@
       <c r="G5" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -556,8 +574,11 @@
       <c r="G6" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -579,8 +600,11 @@
       <c r="G7" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -602,8 +626,11 @@
       <c r="G8" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -625,8 +652,11 @@
       <c r="G9" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -648,8 +678,11 @@
       <c r="G10" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -670,6 +703,9 @@
       </c>
       <c r="G11" s="2">
         <v>10</v>
+      </c>
+      <c r="H11" s="2">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A52C842F-6786-4024-8DC9-6A99185EF7C7}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{070C712F-43BF-4313-8526-F526FCD3740A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Lay's</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>15-jun</t>
+  </si>
+  <si>
+    <t>16-jun</t>
   </si>
 </sst>
 </file>
@@ -409,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +425,7 @@
     <col min="9" max="9" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -447,8 +450,11 @@
       <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -473,8 +479,11 @@
       <c r="H2" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -499,8 +508,11 @@
       <c r="H3" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -525,8 +537,11 @@
       <c r="H4" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -551,8 +566,11 @@
       <c r="H5" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -577,8 +595,11 @@
       <c r="H6" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -603,8 +624,11 @@
       <c r="H7" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -629,8 +653,11 @@
       <c r="H8" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -655,8 +682,11 @@
       <c r="H9" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -681,8 +711,11 @@
       <c r="H10" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -705,6 +738,9 @@
         <v>10</v>
       </c>
       <c r="H11" s="2">
+        <v>8</v>
+      </c>
+      <c r="I11" s="2">
         <v>8</v>
       </c>
     </row>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{070C712F-43BF-4313-8526-F526FCD3740A}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EB34070F-AD24-427D-A958-8A4B4B2E8679}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Lay's</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>16-jun</t>
+  </si>
+  <si>
+    <t>21-jun</t>
   </si>
 </sst>
 </file>
@@ -147,6 +150,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>543773</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57642</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BC56BA5-E6C0-4888-A47B-2EC479BF8269}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314450" y="2438400"/>
+          <a:ext cx="6077798" cy="3524742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -412,20 +464,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -453,8 +505,11 @@
       <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -482,8 +537,11 @@
       <c r="I2" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -511,8 +569,11 @@
       <c r="I3" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -540,8 +601,11 @@
       <c r="I4" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -569,8 +633,11 @@
       <c r="I5" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -598,8 +665,11 @@
       <c r="I6" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -627,8 +697,11 @@
       <c r="I7" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -656,8 +729,11 @@
       <c r="I8" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -685,8 +761,11 @@
       <c r="I9" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -714,8 +793,11 @@
       <c r="I10" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -742,10 +824,14 @@
       </c>
       <c r="I11" s="2">
         <v>8</v>
+      </c>
+      <c r="J11" s="2">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="597" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EB34070F-AD24-427D-A958-8A4B4B2E8679}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{20D4CDD6-C57B-4DEC-BA95-A77F8A8B21D9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Lay's</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>21-jun</t>
+  </si>
+  <si>
+    <t>22-jun</t>
   </si>
 </sst>
 </file>
@@ -156,23 +159,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>543773</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>124684</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>57642</xdr:rowOff>
+      <xdr:rowOff>105258</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BC56BA5-E6C0-4888-A47B-2EC479BF8269}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7A9B863-B9F2-4798-A3AF-C3FACB21CC37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -188,8 +191,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1314450" y="2438400"/>
-          <a:ext cx="6077798" cy="3524742"/>
+          <a:off x="4476750" y="2552700"/>
+          <a:ext cx="6154009" cy="3458058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -464,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +480,7 @@
     <col min="9" max="9" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -508,8 +511,11 @@
       <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -540,8 +546,11 @@
       <c r="J2" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -572,8 +581,11 @@
       <c r="J3" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -604,8 +616,11 @@
       <c r="J4" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -636,8 +651,11 @@
       <c r="J5" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -668,8 +686,11 @@
       <c r="J6" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -700,8 +721,11 @@
       <c r="J7" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -732,8 +756,11 @@
       <c r="J8" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -764,8 +791,11 @@
       <c r="J9" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -796,8 +826,11 @@
       <c r="J10" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -827,6 +860,9 @@
       </c>
       <c r="J11" s="2">
         <v>9</v>
+      </c>
+      <c r="K11" s="2">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{20D4CDD6-C57B-4DEC-BA95-A77F8A8B21D9}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A9D87A77-1EC7-4CAD-B582-F71567A8BBBF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Lay's</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>22-jun</t>
+  </si>
+  <si>
+    <t>23-jun</t>
   </si>
 </sst>
 </file>
@@ -153,55 +156,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>124684</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>105258</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7A9B863-B9F2-4798-A3AF-C3FACB21CC37}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4476750" y="2552700"/>
-          <a:ext cx="6154009" cy="3458058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +434,7 @@
     <col min="9" max="9" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -514,8 +468,11 @@
       <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -549,8 +506,11 @@
       <c r="K2" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -584,8 +544,11 @@
       <c r="K3" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -619,8 +582,11 @@
       <c r="K4" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -654,8 +620,11 @@
       <c r="K5" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -689,8 +658,11 @@
       <c r="K6" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -724,8 +696,11 @@
       <c r="K7" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -759,8 +734,11 @@
       <c r="K8" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -794,8 +772,11 @@
       <c r="K9" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -829,8 +810,11 @@
       <c r="K10" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -863,11 +847,13 @@
       </c>
       <c r="K11" s="2">
         <v>8</v>
+      </c>
+      <c r="L11" s="2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="597" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A9D87A77-1EC7-4CAD-B582-F71567A8BBBF}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{20E5FF79-8486-4D53-9DD7-BB41ECD91A67}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Lay's</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>23-jun</t>
+  </si>
+  <si>
+    <t>26-jun</t>
   </si>
 </sst>
 </file>
@@ -156,6 +159,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>153247</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>48052</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D621407D-9243-4914-A3FB-89725B5D3B90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3371850" y="2324100"/>
+          <a:ext cx="6068272" cy="3057952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +486,7 @@
     <col min="9" max="9" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -471,8 +523,11 @@
       <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -509,8 +564,11 @@
       <c r="L2" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -547,8 +605,11 @@
       <c r="L3" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -585,8 +646,11 @@
       <c r="L4" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -623,8 +687,11 @@
       <c r="L5" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -661,8 +728,11 @@
       <c r="L6" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -699,8 +769,11 @@
       <c r="L7" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -737,8 +810,11 @@
       <c r="L8" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -775,8 +851,11 @@
       <c r="L9" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -813,8 +892,11 @@
       <c r="L10" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -850,10 +932,14 @@
       </c>
       <c r="L11" s="2">
         <v>6</v>
+      </c>
+      <c r="M11" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="597" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{20E5FF79-8486-4D53-9DD7-BB41ECD91A67}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{754F7385-72FC-4E7B-9C3A-0FC102B33BC8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Lay's</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>26-jun</t>
+  </si>
+  <si>
+    <t>27-jun</t>
   </si>
 </sst>
 </file>
@@ -159,55 +162,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>153247</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>48052</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D621407D-9243-4914-A3FB-89725B5D3B90}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3371850" y="2324100"/>
-          <a:ext cx="6068272" cy="3057952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,7 +440,7 @@
     <col min="9" max="9" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -526,8 +480,11 @@
       <c r="M1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -567,8 +524,11 @@
       <c r="M2" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -608,8 +568,11 @@
       <c r="M3" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -649,8 +612,11 @@
       <c r="M4" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -690,8 +656,11 @@
       <c r="M5" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -731,8 +700,11 @@
       <c r="M6" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -772,8 +744,11 @@
       <c r="M7" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -813,8 +788,11 @@
       <c r="M8" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -854,8 +832,11 @@
       <c r="M9" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -895,8 +876,11 @@
       <c r="M10" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -935,11 +919,13 @@
       </c>
       <c r="M11" s="2">
         <v>5</v>
+      </c>
+      <c r="N11" s="2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="597" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{754F7385-72FC-4E7B-9C3A-0FC102B33BC8}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{98028520-8564-470D-88DB-6D14C383FFC2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Lay's</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>27-jun</t>
+  </si>
+  <si>
+    <t>28-jun</t>
   </si>
 </sst>
 </file>
@@ -427,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +443,7 @@
     <col min="9" max="9" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -483,8 +486,11 @@
       <c r="N1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -527,8 +533,11 @@
       <c r="N2" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -571,8 +580,11 @@
       <c r="N3" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -615,8 +627,11 @@
       <c r="N4" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -659,8 +674,11 @@
       <c r="N5" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -703,8 +721,11 @@
       <c r="N6" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -747,8 +768,11 @@
       <c r="N7" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -791,8 +815,11 @@
       <c r="N8" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -835,8 +862,11 @@
       <c r="N9" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -879,8 +909,11 @@
       <c r="N10" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -921,6 +954,9 @@
         <v>5</v>
       </c>
       <c r="N11" s="2">
+        <v>6</v>
+      </c>
+      <c r="O11" s="2">
         <v>6</v>
       </c>
     </row>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{98028520-8564-470D-88DB-6D14C383FFC2}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9139F936-40CC-494A-8D48-99D16A7D0488}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Lay's</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>28-jun</t>
+  </si>
+  <si>
+    <t>29-jun</t>
   </si>
 </sst>
 </file>
@@ -144,10 +147,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -430,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,7 +449,7 @@
     <col min="9" max="9" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -489,8 +495,11 @@
       <c r="O1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -536,8 +545,11 @@
       <c r="O2" s="2">
         <v>14</v>
       </c>
+      <c r="P2" s="3">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -583,8 +595,11 @@
       <c r="O3" s="2">
         <v>16</v>
       </c>
+      <c r="P3" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -630,8 +645,11 @@
       <c r="O4" s="2">
         <v>7</v>
       </c>
+      <c r="P4" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -677,8 +695,11 @@
       <c r="O5" s="2">
         <v>13</v>
       </c>
+      <c r="P5" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -724,8 +745,11 @@
       <c r="O6" s="2">
         <v>12</v>
       </c>
+      <c r="P6" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -771,8 +795,11 @@
       <c r="O7" s="2">
         <v>19</v>
       </c>
+      <c r="P7" s="2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -818,8 +845,11 @@
       <c r="O8" s="2">
         <v>14</v>
       </c>
+      <c r="P8" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -865,8 +895,11 @@
       <c r="O9" s="2">
         <v>16</v>
       </c>
+      <c r="P9" s="2">
+        <v>18</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -912,8 +945,11 @@
       <c r="O10" s="2">
         <v>11</v>
       </c>
+      <c r="P10" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -958,6 +994,9 @@
       </c>
       <c r="O11" s="2">
         <v>6</v>
+      </c>
+      <c r="P11" s="2">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9139F936-40CC-494A-8D48-99D16A7D0488}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4595269-8E4A-4E94-AFE6-2A12BD2B891F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Lay's</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>29-jun</t>
+  </si>
+  <si>
+    <t>30-jun</t>
   </si>
 </sst>
 </file>
@@ -436,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +452,7 @@
     <col min="9" max="9" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -498,8 +501,11 @@
       <c r="P1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -548,8 +554,11 @@
       <c r="P2" s="3">
         <v>15</v>
       </c>
+      <c r="Q2" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -598,8 +607,11 @@
       <c r="P3" s="2">
         <v>16</v>
       </c>
+      <c r="Q3" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -648,8 +660,11 @@
       <c r="P4" s="2">
         <v>8</v>
       </c>
+      <c r="Q4" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -698,8 +713,11 @@
       <c r="P5" s="2">
         <v>12</v>
       </c>
+      <c r="Q5" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -748,8 +766,11 @@
       <c r="P6" s="2">
         <v>11</v>
       </c>
+      <c r="Q6" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -798,8 +819,11 @@
       <c r="P7" s="2">
         <v>20</v>
       </c>
+      <c r="Q7" s="2">
+        <v>21</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -848,8 +872,11 @@
       <c r="P8" s="2">
         <v>10</v>
       </c>
+      <c r="Q8" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -898,8 +925,11 @@
       <c r="P9" s="2">
         <v>18</v>
       </c>
+      <c r="Q9" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -948,8 +978,11 @@
       <c r="P10" s="2">
         <v>8</v>
       </c>
+      <c r="Q10" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -997,6 +1030,9 @@
       </c>
       <c r="P11" s="2">
         <v>13</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="168" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4595269-8E4A-4E94-AFE6-2A12BD2B891F}"/>
+  <xr:revisionPtr revIDLastSave="197" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25D3D788-D28A-4799-8CC5-A2A7582517E5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Lay's</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>30-jun</t>
+  </si>
+  <si>
+    <t>3-jul</t>
+  </si>
+  <si>
+    <t>4-jul</t>
   </si>
 </sst>
 </file>
@@ -439,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +458,7 @@
     <col min="9" max="9" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -504,8 +510,14 @@
       <c r="Q1" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -557,8 +569,14 @@
       <c r="Q2" s="2">
         <v>16</v>
       </c>
+      <c r="R2" s="2">
+        <v>14</v>
+      </c>
+      <c r="S2" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -610,8 +628,14 @@
       <c r="Q3" s="2">
         <v>15</v>
       </c>
+      <c r="R3" s="2">
+        <v>19</v>
+      </c>
+      <c r="S3" s="2">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -663,8 +687,14 @@
       <c r="Q4" s="2">
         <v>8</v>
       </c>
+      <c r="R4" s="2">
+        <v>10</v>
+      </c>
+      <c r="S4" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -716,8 +746,14 @@
       <c r="Q5" s="2">
         <v>11</v>
       </c>
+      <c r="R5" s="2">
+        <v>13</v>
+      </c>
+      <c r="S5" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -769,8 +805,14 @@
       <c r="Q6" s="2">
         <v>13</v>
       </c>
+      <c r="R6" s="2">
+        <v>11</v>
+      </c>
+      <c r="S6" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -822,8 +864,14 @@
       <c r="Q7" s="2">
         <v>21</v>
       </c>
+      <c r="R7" s="2">
+        <v>18</v>
+      </c>
+      <c r="S7" s="2">
+        <v>18</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -875,8 +923,14 @@
       <c r="Q8" s="2">
         <v>10</v>
       </c>
+      <c r="R8" s="2">
+        <v>8</v>
+      </c>
+      <c r="S8" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -928,8 +982,14 @@
       <c r="Q9" s="2">
         <v>17</v>
       </c>
+      <c r="R9" s="2">
+        <v>23</v>
+      </c>
+      <c r="S9" s="2">
+        <v>23</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -981,8 +1041,14 @@
       <c r="Q10" s="2">
         <v>7</v>
       </c>
+      <c r="R10" s="2">
+        <v>16</v>
+      </c>
+      <c r="S10" s="2">
+        <v>23</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1033,6 +1099,12 @@
       </c>
       <c r="Q11" s="2">
         <v>15</v>
+      </c>
+      <c r="R11" s="2">
+        <v>8</v>
+      </c>
+      <c r="S11" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="197" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25D3D788-D28A-4799-8CC5-A2A7582517E5}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDA7BDDE-664A-4909-8764-424BAA366FC2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Lay's</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>4-jul</t>
+  </si>
+  <si>
+    <t>5-jul</t>
   </si>
 </sst>
 </file>
@@ -445,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +461,7 @@
     <col min="9" max="9" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -516,8 +519,11 @@
       <c r="S1" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -575,8 +581,11 @@
       <c r="S2" s="2">
         <v>13</v>
       </c>
+      <c r="T2" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -634,8 +643,11 @@
       <c r="S3" s="2">
         <v>21</v>
       </c>
+      <c r="T3" s="2">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -693,8 +705,11 @@
       <c r="S4" s="2">
         <v>10</v>
       </c>
+      <c r="T4" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -752,8 +767,11 @@
       <c r="S5" s="2">
         <v>12</v>
       </c>
+      <c r="T5" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -811,8 +829,11 @@
       <c r="S6" s="2">
         <v>14</v>
       </c>
+      <c r="T6" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -870,8 +891,11 @@
       <c r="S7" s="2">
         <v>18</v>
       </c>
+      <c r="T7" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -929,8 +953,11 @@
       <c r="S8" s="2">
         <v>10</v>
       </c>
+      <c r="T8" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -988,8 +1015,11 @@
       <c r="S9" s="2">
         <v>23</v>
       </c>
+      <c r="T9" s="2">
+        <v>21</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1047,8 +1077,11 @@
       <c r="S10" s="2">
         <v>23</v>
       </c>
+      <c r="T10" s="2">
+        <v>23</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1105,6 +1138,9 @@
       </c>
       <c r="S11" s="2">
         <v>3</v>
+      </c>
+      <c r="T11" s="2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="211" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDA7BDDE-664A-4909-8764-424BAA366FC2}"/>
+  <xr:revisionPtr revIDLastSave="228" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F994B6C4-0A20-4CF3-839F-4ED2C2BACA8B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Lay's</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>5-jul</t>
+  </si>
+  <si>
+    <t>6-jul</t>
   </si>
 </sst>
 </file>
@@ -448,20 +451,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13" hidden="1" customWidth="1"/>
+    <col min="3" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" hidden="1" customWidth="1"/>
+    <col min="10" max="14" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -522,8 +527,11 @@
       <c r="T1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -584,8 +592,11 @@
       <c r="T2" s="2">
         <v>13</v>
       </c>
+      <c r="U2" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -646,8 +657,11 @@
       <c r="T3" s="2">
         <v>23</v>
       </c>
+      <c r="U3" s="2">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -708,8 +722,11 @@
       <c r="T4" s="2">
         <v>11</v>
       </c>
+      <c r="U4" s="2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -770,8 +787,11 @@
       <c r="T5" s="2">
         <v>12</v>
       </c>
+      <c r="U5" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -832,8 +852,11 @@
       <c r="T6" s="2">
         <v>13</v>
       </c>
+      <c r="U6" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -894,8 +917,11 @@
       <c r="T7" s="2">
         <v>17</v>
       </c>
+      <c r="U7" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -956,8 +982,11 @@
       <c r="T8" s="2">
         <v>11</v>
       </c>
+      <c r="U8" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1047,11 @@
       <c r="T9" s="2">
         <v>21</v>
       </c>
+      <c r="U9" s="2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1080,8 +1112,11 @@
       <c r="T10" s="2">
         <v>23</v>
       </c>
+      <c r="U10" s="2">
+        <v>22</v>
+      </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1141,6 +1176,9 @@
       </c>
       <c r="T11" s="2">
         <v>6</v>
+      </c>
+      <c r="U11" s="2">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="228" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F994B6C4-0A20-4CF3-839F-4ED2C2BACA8B}"/>
+  <xr:revisionPtr revIDLastSave="243" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10616E8C-B0C8-4F61-8F1F-451F8D840A46}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Lay's</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>6-jul</t>
+  </si>
+  <si>
+    <t>7-jul</t>
+  </si>
+  <si>
+    <t>10-jul</t>
   </si>
 </sst>
 </file>
@@ -451,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,7 +472,7 @@
     <col min="10" max="14" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -530,8 +536,14 @@
       <c r="U1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -595,8 +607,11 @@
       <c r="U2" s="2">
         <v>12</v>
       </c>
+      <c r="W2" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -660,8 +675,11 @@
       <c r="U3" s="2">
         <v>25</v>
       </c>
+      <c r="W3" s="2">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -725,8 +743,11 @@
       <c r="U4" s="2">
         <v>20</v>
       </c>
+      <c r="W4" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -790,8 +811,11 @@
       <c r="U5" s="2">
         <v>10</v>
       </c>
+      <c r="W5" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -855,8 +879,11 @@
       <c r="U6" s="2">
         <v>14</v>
       </c>
+      <c r="W6" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -920,8 +947,11 @@
       <c r="U7" s="2">
         <v>16</v>
       </c>
+      <c r="W7" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -985,8 +1015,11 @@
       <c r="U8" s="2">
         <v>12</v>
       </c>
+      <c r="W8" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1050,8 +1083,11 @@
       <c r="U9" s="2">
         <v>20</v>
       </c>
+      <c r="W9" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1115,8 +1151,11 @@
       <c r="U10" s="2">
         <v>22</v>
       </c>
+      <c r="W10" s="2">
+        <v>22</v>
+      </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1179,6 +1218,9 @@
       </c>
       <c r="U11" s="2">
         <v>9</v>
+      </c>
+      <c r="W11" s="2">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="243" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10616E8C-B0C8-4F61-8F1F-451F8D840A46}"/>
+  <xr:revisionPtr revIDLastSave="269" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EFCF770-7EE1-4670-A1F9-32D57796A318}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Lay's</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>10-jul</t>
+  </si>
+  <si>
+    <t>11-jul</t>
   </si>
 </sst>
 </file>
@@ -457,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +475,7 @@
     <col min="10" max="14" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -542,8 +545,11 @@
       <c r="W1" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="X1" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -607,11 +613,17 @@
       <c r="U2" s="2">
         <v>12</v>
       </c>
+      <c r="V2" s="2">
+        <v>13</v>
+      </c>
       <c r="W2" s="2">
         <v>13</v>
       </c>
+      <c r="X2" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -675,11 +687,17 @@
       <c r="U3" s="2">
         <v>25</v>
       </c>
+      <c r="V3" s="2">
+        <v>24</v>
+      </c>
       <c r="W3" s="2">
         <v>18</v>
       </c>
+      <c r="X3" s="2">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -743,11 +761,17 @@
       <c r="U4" s="2">
         <v>20</v>
       </c>
+      <c r="V4" s="2">
+        <v>9</v>
+      </c>
       <c r="W4" s="2">
         <v>7</v>
       </c>
+      <c r="X4" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -811,11 +835,17 @@
       <c r="U5" s="2">
         <v>10</v>
       </c>
+      <c r="V5" s="2">
+        <v>10</v>
+      </c>
       <c r="W5" s="2">
         <v>10</v>
       </c>
+      <c r="X5" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -879,11 +909,17 @@
       <c r="U6" s="2">
         <v>14</v>
       </c>
+      <c r="V6" s="2">
+        <v>13</v>
+      </c>
       <c r="W6" s="2">
         <v>13</v>
       </c>
+      <c r="X6" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -947,11 +983,17 @@
       <c r="U7" s="2">
         <v>16</v>
       </c>
+      <c r="V7" s="2">
+        <v>15</v>
+      </c>
       <c r="W7" s="2">
         <v>15</v>
       </c>
+      <c r="X7" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1015,11 +1057,17 @@
       <c r="U8" s="2">
         <v>12</v>
       </c>
+      <c r="V8" s="2">
+        <v>13</v>
+      </c>
       <c r="W8" s="2">
         <v>15</v>
       </c>
+      <c r="X8" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1083,11 +1131,17 @@
       <c r="U9" s="2">
         <v>20</v>
       </c>
+      <c r="V9" s="2">
+        <v>19</v>
+      </c>
       <c r="W9" s="2">
         <v>10</v>
       </c>
+      <c r="X9" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1151,11 +1205,17 @@
       <c r="U10" s="2">
         <v>22</v>
       </c>
+      <c r="V10" s="2">
+        <v>20</v>
+      </c>
       <c r="W10" s="2">
         <v>22</v>
       </c>
+      <c r="X10" s="2">
+        <v>21</v>
+      </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1219,7 +1279,13 @@
       <c r="U11" s="2">
         <v>9</v>
       </c>
+      <c r="V11" s="2">
+        <v>10</v>
+      </c>
       <c r="W11" s="2">
+        <v>22</v>
+      </c>
+      <c r="X11" s="2">
         <v>22</v>
       </c>
     </row>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="269" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EFCF770-7EE1-4670-A1F9-32D57796A318}"/>
+  <xr:revisionPtr revIDLastSave="284" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E916311-055E-4CCB-A7CB-740A5F7C8FC0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Lay's</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>11-jul</t>
+  </si>
+  <si>
+    <t>12-jul</t>
   </si>
 </sst>
 </file>
@@ -460,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +478,7 @@
     <col min="10" max="14" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -548,8 +551,11 @@
       <c r="X1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -622,8 +628,11 @@
       <c r="X2" s="2">
         <v>12</v>
       </c>
+      <c r="Y2" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -696,8 +705,11 @@
       <c r="X3" s="2">
         <v>18</v>
       </c>
+      <c r="Y3" s="2">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -770,8 +782,11 @@
       <c r="X4" s="2">
         <v>7</v>
       </c>
+      <c r="Y4" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -844,8 +859,11 @@
       <c r="X5" s="2">
         <v>9</v>
       </c>
+      <c r="Y5" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -918,8 +936,11 @@
       <c r="X6" s="2">
         <v>13</v>
       </c>
+      <c r="Y6" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -992,8 +1013,11 @@
       <c r="X7" s="2">
         <v>15</v>
       </c>
+      <c r="Y7" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1066,8 +1090,11 @@
       <c r="X8" s="2">
         <v>15</v>
       </c>
+      <c r="Y8" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1140,8 +1167,11 @@
       <c r="X9" s="2">
         <v>10</v>
       </c>
+      <c r="Y9" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1214,8 +1244,11 @@
       <c r="X10" s="2">
         <v>21</v>
       </c>
+      <c r="Y10" s="2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1287,6 +1320,9 @@
       </c>
       <c r="X11" s="2">
         <v>22</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="284" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E916311-055E-4CCB-A7CB-740A5F7C8FC0}"/>
+  <xr:revisionPtr revIDLastSave="300" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1235437-0792-413E-8A03-EF2B555DF35B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Lay's</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>12-jul</t>
+  </si>
+  <si>
+    <t>13-jul</t>
   </si>
 </sst>
 </file>
@@ -463,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +481,7 @@
     <col min="10" max="14" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -554,8 +557,11 @@
       <c r="Y1" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="Z1" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -631,8 +637,11 @@
       <c r="Y2" s="2">
         <v>13</v>
       </c>
+      <c r="Z2" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -708,8 +717,11 @@
       <c r="Y3" s="2">
         <v>19</v>
       </c>
+      <c r="Z3" s="2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -785,8 +797,11 @@
       <c r="Y4" s="2">
         <v>6</v>
       </c>
+      <c r="Z4" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -862,8 +877,11 @@
       <c r="Y5" s="2">
         <v>9</v>
       </c>
+      <c r="Z5" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -939,8 +957,11 @@
       <c r="Y6" s="2">
         <v>14</v>
       </c>
+      <c r="Z6" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1016,8 +1037,11 @@
       <c r="Y7" s="2">
         <v>16</v>
       </c>
+      <c r="Z7" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1093,8 +1117,11 @@
       <c r="Y8" s="2">
         <v>16</v>
       </c>
+      <c r="Z8" s="2">
+        <v>18</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1170,8 +1197,11 @@
       <c r="Y9" s="2">
         <v>10</v>
       </c>
+      <c r="Z9" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1247,8 +1277,11 @@
       <c r="Y10" s="2">
         <v>20</v>
       </c>
+      <c r="Z10" s="2">
+        <v>19</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1323,6 +1356,9 @@
       </c>
       <c r="Y11" s="2">
         <v>26</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="300" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1235437-0792-413E-8A03-EF2B555DF35B}"/>
+  <xr:revisionPtr revIDLastSave="317" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{530D4771-75E4-49B7-B65F-E8C12E4DF4BF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Lay's</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>13-jul</t>
+  </si>
+  <si>
+    <t>14-jul</t>
   </si>
 </sst>
 </file>
@@ -466,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +484,7 @@
     <col min="10" max="14" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -560,8 +563,11 @@
       <c r="Z1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -640,8 +646,11 @@
       <c r="Z2" s="2">
         <v>13</v>
       </c>
+      <c r="AA2" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -720,8 +729,11 @@
       <c r="Z3" s="2">
         <v>20</v>
       </c>
+      <c r="AA3" s="2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -800,8 +812,11 @@
       <c r="Z4" s="2">
         <v>8</v>
       </c>
+      <c r="AA4" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -880,8 +895,11 @@
       <c r="Z5" s="2">
         <v>8</v>
       </c>
+      <c r="AA5" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -960,8 +978,11 @@
       <c r="Z6" s="2">
         <v>12</v>
       </c>
+      <c r="AA6" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1040,8 +1061,11 @@
       <c r="Z7" s="2">
         <v>16</v>
       </c>
+      <c r="AA7" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1120,8 +1144,11 @@
       <c r="Z8" s="2">
         <v>18</v>
       </c>
+      <c r="AA8" s="2">
+        <v>19</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1200,8 +1227,11 @@
       <c r="Z9" s="2">
         <v>12</v>
       </c>
+      <c r="AA9" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1280,8 +1310,11 @@
       <c r="Z10" s="2">
         <v>19</v>
       </c>
+      <c r="AA10" s="2">
+        <v>18</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1359,6 +1392,9 @@
       </c>
       <c r="Z11" s="2">
         <v>24</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="317" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{530D4771-75E4-49B7-B65F-E8C12E4DF4BF}"/>
+  <xr:revisionPtr revIDLastSave="336" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37BC3CF8-5046-4E4F-9A30-5F4F8D2BEDDA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Lay's</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>14-jul</t>
+  </si>
+  <si>
+    <t>17-jul</t>
   </si>
 </sst>
 </file>
@@ -469,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,10 +484,13 @@
     <col min="2" max="2" width="13" hidden="1" customWidth="1"/>
     <col min="3" max="8" width="0" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" hidden="1" customWidth="1"/>
-    <col min="10" max="14" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="15" width="0" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="0" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -566,8 +572,11 @@
       <c r="AA1" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AB1" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -649,8 +658,11 @@
       <c r="AA2" s="2">
         <v>13</v>
       </c>
+      <c r="AB2" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -732,8 +744,11 @@
       <c r="AA3" s="2">
         <v>20</v>
       </c>
+      <c r="AB3" s="2">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -815,8 +830,11 @@
       <c r="AA4" s="2">
         <v>7</v>
       </c>
+      <c r="AB4" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -898,8 +916,11 @@
       <c r="AA5" s="2">
         <v>9</v>
       </c>
+      <c r="AB5" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -981,8 +1002,11 @@
       <c r="AA6" s="2">
         <v>12</v>
       </c>
+      <c r="AB6" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1064,8 +1088,11 @@
       <c r="AA7" s="2">
         <v>16</v>
       </c>
+      <c r="AB7" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1147,8 +1174,11 @@
       <c r="AA8" s="2">
         <v>19</v>
       </c>
+      <c r="AB8" s="2">
+        <v>22</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1230,8 +1260,11 @@
       <c r="AA9" s="2">
         <v>13</v>
       </c>
+      <c r="AB9" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1313,8 +1346,11 @@
       <c r="AA10" s="2">
         <v>18</v>
       </c>
+      <c r="AB10" s="2">
+        <v>19</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1395,6 +1431,9 @@
       </c>
       <c r="AA11" s="2">
         <v>22</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="336" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37BC3CF8-5046-4E4F-9A30-5F4F8D2BEDDA}"/>
+  <xr:revisionPtr revIDLastSave="352" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A903111E-5E9C-4C41-B92E-47AED225A2B7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Lay's</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>17-jul</t>
+  </si>
+  <si>
+    <t>18-jul</t>
   </si>
 </sst>
 </file>
@@ -472,10 +475,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB11"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +494,7 @@
     <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -575,8 +579,11 @@
       <c r="AB1" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="AC1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -661,8 +668,11 @@
       <c r="AB2" s="2">
         <v>12</v>
       </c>
+      <c r="AC2" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -747,8 +757,11 @@
       <c r="AB3" s="2">
         <v>18</v>
       </c>
+      <c r="AC3" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -833,8 +846,11 @@
       <c r="AB4" s="2">
         <v>8</v>
       </c>
+      <c r="AC4" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -919,8 +935,11 @@
       <c r="AB5" s="2">
         <v>11</v>
       </c>
+      <c r="AC5" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1005,8 +1024,11 @@
       <c r="AB6" s="2">
         <v>11</v>
       </c>
+      <c r="AC6" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1091,8 +1113,11 @@
       <c r="AB7" s="2">
         <v>17</v>
       </c>
+      <c r="AC7" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1177,8 +1202,11 @@
       <c r="AB8" s="2">
         <v>22</v>
       </c>
+      <c r="AC8" s="2">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1263,8 +1291,11 @@
       <c r="AB9" s="2">
         <v>9</v>
       </c>
+      <c r="AC9" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1349,8 +1380,11 @@
       <c r="AB10" s="2">
         <v>19</v>
       </c>
+      <c r="AC10" s="2">
+        <v>28</v>
+      </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1434,6 +1468,9 @@
       </c>
       <c r="AB11" s="2">
         <v>23</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="352" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A903111E-5E9C-4C41-B92E-47AED225A2B7}"/>
+  <xr:revisionPtr revIDLastSave="370" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A86A602E-E932-4C49-AC1C-8152248A41F2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Lay's</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>18-jul</t>
+  </si>
+  <si>
+    <t>19-jul</t>
   </si>
 </sst>
 </file>
@@ -476,10 +479,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+      <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,13 +491,10 @@
     <col min="2" max="2" width="13" hidden="1" customWidth="1"/>
     <col min="3" max="8" width="0" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" hidden="1" customWidth="1"/>
-    <col min="10" max="15" width="0" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="0" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="23" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -582,8 +582,11 @@
       <c r="AC1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AD1" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -671,8 +674,11 @@
       <c r="AC2" s="2">
         <v>12</v>
       </c>
+      <c r="AD2" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -760,8 +766,11 @@
       <c r="AC3" s="2">
         <v>17</v>
       </c>
+      <c r="AD3" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -849,8 +858,11 @@
       <c r="AC4" s="2">
         <v>8</v>
       </c>
+      <c r="AD4" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -938,8 +950,11 @@
       <c r="AC5" s="2">
         <v>9</v>
       </c>
+      <c r="AD5" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1027,8 +1042,11 @@
       <c r="AC6" s="2">
         <v>12</v>
       </c>
+      <c r="AD6" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1116,8 +1134,11 @@
       <c r="AC7" s="2">
         <v>15</v>
       </c>
+      <c r="AD7" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1205,8 +1226,11 @@
       <c r="AC8" s="2">
         <v>21</v>
       </c>
+      <c r="AD8" s="2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1294,8 +1318,11 @@
       <c r="AC9" s="2">
         <v>12</v>
       </c>
+      <c r="AD9" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1383,8 +1410,11 @@
       <c r="AC10" s="2">
         <v>28</v>
       </c>
+      <c r="AD10" s="2">
+        <v>26</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1471,6 +1501,9 @@
       </c>
       <c r="AC11" s="2">
         <v>24</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="370" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A86A602E-E932-4C49-AC1C-8152248A41F2}"/>
+  <xr:revisionPtr revIDLastSave="386" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43D41400-45EC-4D45-B241-314B4812A80D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Lay's</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>19-jul</t>
+  </si>
+  <si>
+    <t>20-jul</t>
   </si>
 </sst>
 </file>
@@ -479,10 +482,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AE11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD12" sqref="AD12"/>
+      <selection activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +497,7 @@
     <col min="10" max="23" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -585,8 +588,11 @@
       <c r="AD1" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AE1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -677,8 +683,11 @@
       <c r="AD2" s="2">
         <v>11</v>
       </c>
+      <c r="AE2" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -769,8 +778,11 @@
       <c r="AD3" s="2">
         <v>17</v>
       </c>
+      <c r="AE3" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -861,8 +873,11 @@
       <c r="AD4" s="2">
         <v>9</v>
       </c>
+      <c r="AE4" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -953,8 +968,11 @@
       <c r="AD5" s="2">
         <v>12</v>
       </c>
+      <c r="AE5" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1045,8 +1063,11 @@
       <c r="AD6" s="2">
         <v>13</v>
       </c>
+      <c r="AE6" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1137,8 +1158,11 @@
       <c r="AD7" s="2">
         <v>15</v>
       </c>
+      <c r="AE7" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1229,8 +1253,11 @@
       <c r="AD8" s="2">
         <v>20</v>
       </c>
+      <c r="AE8" s="2">
+        <v>19</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1321,8 +1348,11 @@
       <c r="AD9" s="2">
         <v>14</v>
       </c>
+      <c r="AE9" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1413,8 +1443,11 @@
       <c r="AD10" s="2">
         <v>26</v>
       </c>
+      <c r="AE10" s="2">
+        <v>25</v>
+      </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1504,6 +1537,9 @@
       </c>
       <c r="AD11" s="2">
         <v>25</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="386" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43D41400-45EC-4D45-B241-314B4812A80D}"/>
+  <xr:revisionPtr revIDLastSave="400" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{914F7532-86E3-4AE6-A101-4F1C708F7E94}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Lay's</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>20-jul</t>
+  </si>
+  <si>
+    <t>21-jul</t>
   </si>
 </sst>
 </file>
@@ -482,10 +485,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AE11"/>
+  <dimension ref="A1:AF11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH13" sqref="AH13"/>
+      <selection activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +500,7 @@
     <col min="10" max="23" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -591,8 +594,11 @@
       <c r="AE1" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="AF1" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -686,8 +692,11 @@
       <c r="AE2" s="2">
         <v>10</v>
       </c>
+      <c r="AF2" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -781,8 +790,11 @@
       <c r="AE3" s="2">
         <v>16</v>
       </c>
+      <c r="AF3" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -876,8 +888,11 @@
       <c r="AE4" s="2">
         <v>8</v>
       </c>
+      <c r="AF4" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -971,8 +986,11 @@
       <c r="AE5" s="2">
         <v>13</v>
       </c>
+      <c r="AF5" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1066,8 +1084,11 @@
       <c r="AE6" s="2">
         <v>14</v>
       </c>
+      <c r="AF6" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1161,8 +1182,11 @@
       <c r="AE7" s="2">
         <v>14</v>
       </c>
+      <c r="AF7" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1256,8 +1280,11 @@
       <c r="AE8" s="2">
         <v>19</v>
       </c>
+      <c r="AF8" s="2">
+        <v>18</v>
+      </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1351,8 +1378,11 @@
       <c r="AE9" s="2">
         <v>15</v>
       </c>
+      <c r="AF9" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1446,8 +1476,11 @@
       <c r="AE10" s="2">
         <v>25</v>
       </c>
+      <c r="AF10" s="2">
+        <v>23</v>
+      </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1540,6 +1573,9 @@
       </c>
       <c r="AE11" s="2">
         <v>23</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="400" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{914F7532-86E3-4AE6-A101-4F1C708F7E94}"/>
+  <xr:revisionPtr revIDLastSave="413" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8762A378-1CCE-4500-9702-A5B04A28B81C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Lay's</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>21-jul</t>
+  </si>
+  <si>
+    <t>24-jul</t>
   </si>
 </sst>
 </file>
@@ -485,10 +488,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF11"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF12" sqref="AF12"/>
+      <selection activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +503,7 @@
     <col min="10" max="23" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -597,8 +600,11 @@
       <c r="AF1" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="AG1" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -695,8 +701,11 @@
       <c r="AF2" s="2">
         <v>11</v>
       </c>
+      <c r="AG2" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -793,8 +802,11 @@
       <c r="AF3" s="2">
         <v>15</v>
       </c>
+      <c r="AG3" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -891,8 +903,11 @@
       <c r="AF4" s="2">
         <v>9</v>
       </c>
+      <c r="AG4" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -989,8 +1004,11 @@
       <c r="AF5" s="2">
         <v>14</v>
       </c>
+      <c r="AG5" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1087,8 +1105,11 @@
       <c r="AF6" s="2">
         <v>15</v>
       </c>
+      <c r="AG6" s="2">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1185,8 +1206,11 @@
       <c r="AF7" s="2">
         <v>13</v>
       </c>
+      <c r="AG7" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1283,8 +1307,11 @@
       <c r="AF8" s="2">
         <v>18</v>
       </c>
+      <c r="AG8" s="2">
+        <v>18</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1381,8 +1408,11 @@
       <c r="AF9" s="2">
         <v>15</v>
       </c>
+      <c r="AG9" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1479,8 +1509,11 @@
       <c r="AF10" s="2">
         <v>23</v>
       </c>
+      <c r="AG10" s="2">
+        <v>27</v>
+      </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1576,6 +1609,9 @@
       </c>
       <c r="AF11" s="2">
         <v>22</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="413" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8762A378-1CCE-4500-9702-A5B04A28B81C}"/>
+  <xr:revisionPtr revIDLastSave="442" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{086781B8-16CE-4CDD-9A14-8B1162E3890E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Lay's</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>24-jul</t>
+  </si>
+  <si>
+    <t>25-jul</t>
+  </si>
+  <si>
+    <t>26-jul</t>
   </si>
 </sst>
 </file>
@@ -488,10 +494,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG11"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG12" sqref="AG12"/>
+      <selection activeCell="AJ8" sqref="AJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +509,7 @@
     <col min="10" max="23" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -603,8 +609,14 @@
       <c r="AG1" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -704,8 +716,14 @@
       <c r="AG2" s="2">
         <v>12</v>
       </c>
+      <c r="AH2" s="2">
+        <v>11</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -805,8 +823,14 @@
       <c r="AG3" s="2">
         <v>15</v>
       </c>
+      <c r="AH3" s="2">
+        <v>16</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -906,8 +930,14 @@
       <c r="AG4" s="2">
         <v>10</v>
       </c>
+      <c r="AH4" s="2">
+        <v>9</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1007,8 +1037,14 @@
       <c r="AG5" s="2">
         <v>17</v>
       </c>
+      <c r="AH5" s="2">
+        <v>16</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1108,8 +1144,14 @@
       <c r="AG6" s="2">
         <v>18</v>
       </c>
+      <c r="AH6" s="2">
+        <v>18</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1209,8 +1251,14 @@
       <c r="AG7" s="2">
         <v>12</v>
       </c>
+      <c r="AH7" s="2">
+        <v>12</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1310,8 +1358,14 @@
       <c r="AG8" s="2">
         <v>18</v>
       </c>
+      <c r="AH8" s="2">
+        <v>17</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1411,8 +1465,14 @@
       <c r="AG9" s="2">
         <v>16</v>
       </c>
+      <c r="AH9" s="2">
+        <v>16</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1512,8 +1572,14 @@
       <c r="AG10" s="2">
         <v>27</v>
       </c>
+      <c r="AH10" s="2">
+        <v>23</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>22</v>
+      </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1612,6 +1678,12 @@
       </c>
       <c r="AG11" s="2">
         <v>21</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>19</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="442" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{086781B8-16CE-4CDD-9A14-8B1162E3890E}"/>
+  <xr:revisionPtr revIDLastSave="459" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA1E1E5C-1126-4353-A4FD-61F48B0A3DA0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Lay's</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>26-jul</t>
+  </si>
+  <si>
+    <t>27-jul</t>
   </si>
 </sst>
 </file>
@@ -494,10 +497,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ8" sqref="AJ8"/>
+      <selection activeCell="AQ17" sqref="AQ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,10 +509,10 @@
     <col min="2" max="2" width="13" hidden="1" customWidth="1"/>
     <col min="3" max="8" width="0" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" hidden="1" customWidth="1"/>
-    <col min="10" max="23" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="30" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -615,8 +618,11 @@
       <c r="AI1" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="AJ1" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -722,8 +728,11 @@
       <c r="AI2" s="2">
         <v>11</v>
       </c>
+      <c r="AJ2" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -829,8 +838,11 @@
       <c r="AI3" s="2">
         <v>17</v>
       </c>
+      <c r="AJ3" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -936,8 +948,11 @@
       <c r="AI4" s="2">
         <v>10</v>
       </c>
+      <c r="AJ4" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1043,8 +1058,11 @@
       <c r="AI5" s="2">
         <v>14</v>
       </c>
+      <c r="AJ5" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1150,8 +1168,11 @@
       <c r="AI6" s="2">
         <v>17</v>
       </c>
+      <c r="AJ6" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1257,8 +1278,11 @@
       <c r="AI7" s="2">
         <v>13</v>
       </c>
+      <c r="AJ7" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1364,8 +1388,11 @@
       <c r="AI8" s="2">
         <v>15</v>
       </c>
+      <c r="AJ8" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1471,8 +1498,11 @@
       <c r="AI9" s="2">
         <v>15</v>
       </c>
+      <c r="AJ9" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1578,8 +1608,11 @@
       <c r="AI10" s="2">
         <v>22</v>
       </c>
+      <c r="AJ10" s="2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1684,6 +1717,9 @@
       </c>
       <c r="AI11" s="2">
         <v>18</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="459" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA1E1E5C-1126-4353-A4FD-61F48B0A3DA0}"/>
+  <xr:revisionPtr revIDLastSave="474" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28C2CA55-8F0C-438A-B429-7A15B3B27F2A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Lay's</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>27-jul</t>
+  </si>
+  <si>
+    <t>28-jul</t>
   </si>
 </sst>
 </file>
@@ -497,10 +500,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AK11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AQ17" sqref="AQ17"/>
+      <selection activeCell="AK12" sqref="AK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,7 +515,7 @@
     <col min="10" max="30" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -621,8 +624,11 @@
       <c r="AJ1" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -731,8 +737,11 @@
       <c r="AJ2" s="2">
         <v>12</v>
       </c>
+      <c r="AK2" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -841,8 +850,11 @@
       <c r="AJ3" s="2">
         <v>16</v>
       </c>
+      <c r="AK3" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -951,8 +963,11 @@
       <c r="AJ4" s="2">
         <v>10</v>
       </c>
+      <c r="AK4" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1061,8 +1076,11 @@
       <c r="AJ5" s="2">
         <v>13</v>
       </c>
+      <c r="AK5" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1171,8 +1189,11 @@
       <c r="AJ6" s="2">
         <v>16</v>
       </c>
+      <c r="AK6" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1281,8 +1302,11 @@
       <c r="AJ7" s="2">
         <v>14</v>
       </c>
+      <c r="AK7" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1391,8 +1415,11 @@
       <c r="AJ8" s="2">
         <v>14</v>
       </c>
+      <c r="AK8" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1501,8 +1528,11 @@
       <c r="AJ9" s="2">
         <v>14</v>
       </c>
+      <c r="AK9" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1611,8 +1641,11 @@
       <c r="AJ10" s="2">
         <v>20</v>
       </c>
+      <c r="AK10" s="2">
+        <v>18</v>
+      </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1720,6 +1753,9 @@
       </c>
       <c r="AJ11" s="2">
         <v>17</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="474" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28C2CA55-8F0C-438A-B429-7A15B3B27F2A}"/>
+  <xr:revisionPtr revIDLastSave="489" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D48106C2-1EB1-422A-881E-6488F71174E7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Lay's</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>28-jul</t>
+  </si>
+  <si>
+    <t>31-jul</t>
   </si>
 </sst>
 </file>
@@ -500,10 +503,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AL11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK12" sqref="AK12"/>
+      <selection activeCell="AK16" sqref="AK16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,7 +518,7 @@
     <col min="10" max="30" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -627,8 +630,11 @@
       <c r="AK1" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -740,8 +746,11 @@
       <c r="AK2" s="2">
         <v>12</v>
       </c>
+      <c r="AL2" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -853,8 +862,11 @@
       <c r="AK3" s="2">
         <v>16</v>
       </c>
+      <c r="AL3" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -966,8 +978,11 @@
       <c r="AK4" s="2">
         <v>9</v>
       </c>
+      <c r="AL4" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1079,8 +1094,11 @@
       <c r="AK5" s="2">
         <v>9</v>
       </c>
+      <c r="AL5" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1192,8 +1210,11 @@
       <c r="AK6" s="2">
         <v>13</v>
       </c>
+      <c r="AL6" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1305,8 +1326,11 @@
       <c r="AK7" s="2">
         <v>14</v>
       </c>
+      <c r="AL7" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1418,8 +1442,11 @@
       <c r="AK8" s="2">
         <v>12</v>
       </c>
+      <c r="AL8" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1531,8 +1558,11 @@
       <c r="AK9" s="2">
         <v>13</v>
       </c>
+      <c r="AL9" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1644,8 +1674,11 @@
       <c r="AK10" s="2">
         <v>18</v>
       </c>
+      <c r="AL10" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1756,6 +1789,9 @@
       </c>
       <c r="AK11" s="2">
         <v>15</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="489" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D48106C2-1EB1-422A-881E-6488F71174E7}"/>
+  <xr:revisionPtr revIDLastSave="504" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E8D4F9B-53D0-4F35-A782-480944ABD5A6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Lay's</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>31-jul</t>
+  </si>
+  <si>
+    <t>01-ago</t>
   </si>
 </sst>
 </file>
@@ -503,10 +506,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AL11"/>
+  <dimension ref="A1:AM11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK16" sqref="AK16"/>
+      <selection activeCell="AP8" sqref="AP8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +521,7 @@
     <col min="10" max="30" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -633,8 +636,11 @@
       <c r="AL1" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="AM1" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -749,8 +755,11 @@
       <c r="AL2" s="2">
         <v>13</v>
       </c>
+      <c r="AM2" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -865,8 +874,11 @@
       <c r="AL3" s="2">
         <v>17</v>
       </c>
+      <c r="AM3" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -981,8 +993,11 @@
       <c r="AL4" s="2">
         <v>9</v>
       </c>
+      <c r="AM4" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1097,8 +1112,11 @@
       <c r="AL5" s="2">
         <v>8</v>
       </c>
+      <c r="AM5" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1213,8 +1231,11 @@
       <c r="AL6" s="2">
         <v>12</v>
       </c>
+      <c r="AM6" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1329,8 +1350,11 @@
       <c r="AL7" s="2">
         <v>14</v>
       </c>
+      <c r="AM7" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1445,8 +1469,11 @@
       <c r="AL8" s="2">
         <v>11</v>
       </c>
+      <c r="AM8" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1561,8 +1588,11 @@
       <c r="AL9" s="2">
         <v>12</v>
       </c>
+      <c r="AM9" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1677,8 +1707,11 @@
       <c r="AL10" s="2">
         <v>17</v>
       </c>
+      <c r="AM10" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1792,6 +1825,9 @@
       </c>
       <c r="AL11" s="2">
         <v>14</v>
+      </c>
+      <c r="AM11" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="504" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E8D4F9B-53D0-4F35-A782-480944ABD5A6}"/>
+  <xr:revisionPtr revIDLastSave="518" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE464648-E3EC-4190-B782-C1394F903CD6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Lay's</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>01-ago</t>
+  </si>
+  <si>
+    <t>02-ago</t>
   </si>
 </sst>
 </file>
@@ -506,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AM11"/>
+  <dimension ref="A1:AN11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AP8" sqref="AP8"/>
+      <selection activeCell="AN12" sqref="AN12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +524,7 @@
     <col min="10" max="30" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -639,8 +642,11 @@
       <c r="AM1" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -758,8 +764,11 @@
       <c r="AM2" s="2">
         <v>13</v>
       </c>
+      <c r="AN2" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -877,8 +886,11 @@
       <c r="AM3" s="2">
         <v>17</v>
       </c>
+      <c r="AN3" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -996,8 +1008,11 @@
       <c r="AM4" s="2">
         <v>11</v>
       </c>
+      <c r="AN4" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1115,8 +1130,11 @@
       <c r="AM5" s="2">
         <v>10</v>
       </c>
+      <c r="AN5" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1234,8 +1252,11 @@
       <c r="AM6" s="2">
         <v>11</v>
       </c>
+      <c r="AN6" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1353,8 +1374,11 @@
       <c r="AM7" s="2">
         <v>16</v>
       </c>
+      <c r="AN7" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1472,8 +1496,11 @@
       <c r="AM8" s="2">
         <v>11</v>
       </c>
+      <c r="AN8" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1591,8 +1618,11 @@
       <c r="AM9" s="2">
         <v>14</v>
       </c>
+      <c r="AN9" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1710,8 +1740,11 @@
       <c r="AM10" s="2">
         <v>17</v>
       </c>
+      <c r="AN10" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1828,6 +1861,9 @@
       </c>
       <c r="AM11" s="2">
         <v>15</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="518" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE464648-E3EC-4190-B782-C1394F903CD6}"/>
+  <xr:revisionPtr revIDLastSave="532" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5978D4BE-FF0A-4931-913E-FB80F834FDDA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Lay's</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>02-ago</t>
+  </si>
+  <si>
+    <t>03-ago</t>
   </si>
 </sst>
 </file>
@@ -509,10 +512,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AN11"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AN12" sqref="AN12"/>
+      <selection activeCell="AT10" sqref="AT10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,7 +527,7 @@
     <col min="10" max="30" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -645,8 +648,11 @@
       <c r="AN1" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="AO1" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -767,8 +773,11 @@
       <c r="AN2" s="2">
         <v>15</v>
       </c>
+      <c r="AO2" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -889,8 +898,11 @@
       <c r="AN3" s="2">
         <v>16</v>
       </c>
+      <c r="AO3" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1011,8 +1023,11 @@
       <c r="AN4" s="2">
         <v>12</v>
       </c>
+      <c r="AO4" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1133,8 +1148,11 @@
       <c r="AN5" s="2">
         <v>12</v>
       </c>
+      <c r="AO5" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1255,8 +1273,11 @@
       <c r="AN6" s="2">
         <v>10</v>
       </c>
+      <c r="AO6" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1377,8 +1398,11 @@
       <c r="AN7" s="2">
         <v>17</v>
       </c>
+      <c r="AO7" s="2">
+        <v>18</v>
+      </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1499,8 +1523,11 @@
       <c r="AN8" s="2">
         <v>13</v>
       </c>
+      <c r="AO8" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1621,8 +1648,11 @@
       <c r="AN9" s="2">
         <v>16</v>
       </c>
+      <c r="AO9" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1743,8 +1773,11 @@
       <c r="AN10" s="2">
         <v>15</v>
       </c>
+      <c r="AO10" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1864,6 +1897,9 @@
       </c>
       <c r="AN11" s="2">
         <v>14</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="532" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5978D4BE-FF0A-4931-913E-FB80F834FDDA}"/>
+  <xr:revisionPtr revIDLastSave="549" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5507F19A-03D0-4779-A309-0A2F5BBB2F2A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Lay's</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>03-ago</t>
+  </si>
+  <si>
+    <t>04-ago</t>
   </si>
 </sst>
 </file>
@@ -512,10 +515,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AP11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AT10" sqref="AT10"/>
+      <selection activeCell="AS9" sqref="AS9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +530,7 @@
     <col min="10" max="30" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -651,8 +654,11 @@
       <c r="AO1" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="AP1" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -774,10 +780,13 @@
         <v>15</v>
       </c>
       <c r="AO2" s="2">
+        <v>15</v>
+      </c>
+      <c r="AP2" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -899,10 +908,13 @@
         <v>16</v>
       </c>
       <c r="AO3" s="2">
+        <v>16</v>
+      </c>
+      <c r="AP3" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1024,10 +1036,13 @@
         <v>12</v>
       </c>
       <c r="AO4" s="2">
+        <v>12</v>
+      </c>
+      <c r="AP4" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1149,10 +1164,13 @@
         <v>12</v>
       </c>
       <c r="AO5" s="2">
+        <v>15</v>
+      </c>
+      <c r="AP5" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1274,10 +1292,13 @@
         <v>10</v>
       </c>
       <c r="AO6" s="2">
+        <v>9</v>
+      </c>
+      <c r="AP6" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1401,8 +1422,11 @@
       <c r="AO7" s="2">
         <v>18</v>
       </c>
+      <c r="AP7" s="2">
+        <v>18</v>
+      </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1524,10 +1548,13 @@
         <v>13</v>
       </c>
       <c r="AO8" s="2">
+        <v>15</v>
+      </c>
+      <c r="AP8" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1649,10 +1676,13 @@
         <v>16</v>
       </c>
       <c r="AO9" s="2">
+        <v>17</v>
+      </c>
+      <c r="AP9" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1774,10 +1804,13 @@
         <v>15</v>
       </c>
       <c r="AO10" s="2">
+        <v>14</v>
+      </c>
+      <c r="AP10" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1899,6 +1932,9 @@
         <v>14</v>
       </c>
       <c r="AO11" s="2">
+        <v>13</v>
+      </c>
+      <c r="AP11" s="2">
         <v>12</v>
       </c>
     </row>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -518,7 +518,7 @@
   <dimension ref="A1:AP11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AS9" sqref="AS9"/>
+      <selection activeCell="AP13" sqref="AP13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="549" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5507F19A-03D0-4779-A309-0A2F5BBB2F2A}"/>
+  <xr:revisionPtr revIDLastSave="566" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06D7ADB2-985C-4D23-9E97-1098942C48F8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Lay's</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>04-ago</t>
+  </si>
+  <si>
+    <t>07-ago</t>
   </si>
 </sst>
 </file>
@@ -515,10 +518,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AP11"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AP13" sqref="AP13"/>
+      <selection activeCell="AV8" sqref="AV8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,10 +530,10 @@
     <col min="2" max="2" width="13" hidden="1" customWidth="1"/>
     <col min="3" max="8" width="0" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" hidden="1" customWidth="1"/>
-    <col min="10" max="30" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="38" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -657,8 +660,11 @@
       <c r="AP1" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="AQ1" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -785,8 +791,11 @@
       <c r="AP2" s="2">
         <v>16</v>
       </c>
+      <c r="AQ2" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -913,8 +922,11 @@
       <c r="AP3" s="2">
         <v>14</v>
       </c>
+      <c r="AQ3" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1041,8 +1053,11 @@
       <c r="AP4" s="2">
         <v>11</v>
       </c>
+      <c r="AQ4" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1169,8 +1184,11 @@
       <c r="AP5" s="2">
         <v>17</v>
       </c>
+      <c r="AQ5" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1297,8 +1315,11 @@
       <c r="AP6" s="2">
         <v>8</v>
       </c>
+      <c r="AQ6" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1425,8 +1446,11 @@
       <c r="AP7" s="2">
         <v>18</v>
       </c>
+      <c r="AQ7" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1553,8 +1577,11 @@
       <c r="AP8" s="2">
         <v>16</v>
       </c>
+      <c r="AQ8" s="2">
+        <v>18</v>
+      </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1681,8 +1708,11 @@
       <c r="AP9" s="2">
         <v>16</v>
       </c>
+      <c r="AQ9" s="2">
+        <v>19</v>
+      </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1809,8 +1839,11 @@
       <c r="AP10" s="2">
         <v>13</v>
       </c>
+      <c r="AQ10" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1936,6 +1969,9 @@
       </c>
       <c r="AP11" s="2">
         <v>12</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="566" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06D7ADB2-985C-4D23-9E97-1098942C48F8}"/>
+  <xr:revisionPtr revIDLastSave="579" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B69D0358-4275-4192-AFF2-8C15213E9C3B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Lay's</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>07-ago</t>
+  </si>
+  <si>
+    <t>08-ago</t>
   </si>
 </sst>
 </file>
@@ -518,10 +521,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AV8" sqref="AV8"/>
+      <selection activeCell="AR12" sqref="AR12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +536,7 @@
     <col min="10" max="38" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -663,8 +666,11 @@
       <c r="AQ1" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AR1" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -794,8 +800,11 @@
       <c r="AQ2" s="2">
         <v>15</v>
       </c>
+      <c r="AR2" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -925,8 +934,11 @@
       <c r="AQ3" s="2">
         <v>13</v>
       </c>
+      <c r="AR3" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1056,8 +1068,11 @@
       <c r="AQ4" s="2">
         <v>12</v>
       </c>
+      <c r="AR4" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1187,8 +1202,11 @@
       <c r="AQ5" s="2">
         <v>17</v>
       </c>
+      <c r="AR5" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1318,8 +1336,11 @@
       <c r="AQ6" s="2">
         <v>8</v>
       </c>
+      <c r="AR6" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1449,8 +1470,11 @@
       <c r="AQ7" s="2">
         <v>17</v>
       </c>
+      <c r="AR7" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1580,8 +1604,11 @@
       <c r="AQ8" s="2">
         <v>18</v>
       </c>
+      <c r="AR8" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1711,8 +1738,11 @@
       <c r="AQ9" s="2">
         <v>19</v>
       </c>
+      <c r="AR9" s="2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1842,8 +1872,11 @@
       <c r="AQ10" s="2">
         <v>13</v>
       </c>
+      <c r="AR10" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1972,6 +2005,9 @@
       </c>
       <c r="AQ11" s="2">
         <v>23</v>
+      </c>
+      <c r="AR11" s="2">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="579" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B69D0358-4275-4192-AFF2-8C15213E9C3B}"/>
+  <xr:revisionPtr revIDLastSave="595" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F997192C-8569-4C52-B4AC-1290CE693DDB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Lay's</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>08-ago</t>
+  </si>
+  <si>
+    <t>09-ago</t>
   </si>
 </sst>
 </file>
@@ -255,6 +258,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>162780</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76683</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0DDBF8-C523-A3F9-2F20-74BF2BBD108C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5476875" y="47625"/>
+          <a:ext cx="6125430" cy="3458058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -521,10 +573,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AR11"/>
+  <dimension ref="A1:AS11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AR12" sqref="AR12"/>
+      <selection activeCell="AS5" sqref="AS5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,7 +588,7 @@
     <col min="10" max="38" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -669,8 +721,11 @@
       <c r="AR1" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="AS1" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -803,8 +858,11 @@
       <c r="AR2" s="2">
         <v>14</v>
       </c>
+      <c r="AS2" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -937,8 +995,11 @@
       <c r="AR3" s="2">
         <v>14</v>
       </c>
+      <c r="AS3" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1071,8 +1132,11 @@
       <c r="AR4" s="2">
         <v>11</v>
       </c>
+      <c r="AS4" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1205,8 +1269,11 @@
       <c r="AR5" s="2">
         <v>16</v>
       </c>
+      <c r="AS5" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1339,8 +1406,11 @@
       <c r="AR6" s="2">
         <v>8</v>
       </c>
+      <c r="AS6" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1473,8 +1543,11 @@
       <c r="AR7" s="2">
         <v>16</v>
       </c>
+      <c r="AS7" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1607,8 +1680,11 @@
       <c r="AR8" s="2">
         <v>17</v>
       </c>
+      <c r="AS8" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1741,8 +1817,11 @@
       <c r="AR9" s="2">
         <v>20</v>
       </c>
+      <c r="AS9" s="2">
+        <v>22</v>
+      </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1875,8 +1954,11 @@
       <c r="AR10" s="2">
         <v>12</v>
       </c>
+      <c r="AS10" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2008,10 +2090,14 @@
       </c>
       <c r="AR11" s="2">
         <v>21</v>
+      </c>
+      <c r="AS11" s="2">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="597" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="595" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F997192C-8569-4C52-B4AC-1290CE693DDB}"/>
+  <xr:revisionPtr revIDLastSave="608" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD5C5C96-7D27-43BD-ABB1-B0F1CD50FB63}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Lay's</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>09-ago</t>
+  </si>
+  <si>
+    <t>10-ago</t>
   </si>
 </sst>
 </file>
@@ -258,55 +261,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>162780</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76683</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0DDBF8-C523-A3F9-2F20-74BF2BBD108C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5476875" y="47625"/>
-          <a:ext cx="6125430" cy="3458058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -573,10 +527,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AS11"/>
+  <dimension ref="A1:AT11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AS5" sqref="AS5"/>
+      <selection activeCell="AT12" sqref="AT12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +542,7 @@
     <col min="10" max="38" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -724,8 +678,11 @@
       <c r="AS1" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="AT1" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -861,8 +818,11 @@
       <c r="AS2" s="2">
         <v>15</v>
       </c>
+      <c r="AT2" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -998,8 +958,11 @@
       <c r="AS3" s="2">
         <v>14</v>
       </c>
+      <c r="AT3" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1135,8 +1098,11 @@
       <c r="AS4" s="2">
         <v>11</v>
       </c>
+      <c r="AT4" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1272,8 +1238,11 @@
       <c r="AS5" s="2">
         <v>14</v>
       </c>
+      <c r="AT5" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1409,8 +1378,11 @@
       <c r="AS6" s="2">
         <v>10</v>
       </c>
+      <c r="AT6" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1546,8 +1518,11 @@
       <c r="AS7" s="2">
         <v>15</v>
       </c>
+      <c r="AT7" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1683,8 +1658,11 @@
       <c r="AS8" s="2">
         <v>16</v>
       </c>
+      <c r="AT8" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1820,8 +1798,11 @@
       <c r="AS9" s="2">
         <v>22</v>
       </c>
+      <c r="AT9" s="2">
+        <v>22</v>
+      </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1957,8 +1938,11 @@
       <c r="AS10" s="2">
         <v>11</v>
       </c>
+      <c r="AT10" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2092,12 +2076,14 @@
         <v>21</v>
       </c>
       <c r="AS11" s="2">
+        <v>20</v>
+      </c>
+      <c r="AT11" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="597" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="608" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD5C5C96-7D27-43BD-ABB1-B0F1CD50FB63}"/>
+  <xr:revisionPtr revIDLastSave="623" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08B0AF16-DD72-407C-A4C5-A7E9F3FB9A89}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Lay's</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>10-ago</t>
+  </si>
+  <si>
+    <t>11-ago</t>
   </si>
 </sst>
 </file>
@@ -527,10 +530,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AT11"/>
+  <dimension ref="A1:AU11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AT12" sqref="AT12"/>
+      <selection activeCell="AZ8" sqref="AZ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +545,7 @@
     <col min="10" max="38" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -681,8 +684,11 @@
       <c r="AT1" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="AU1" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -821,8 +827,11 @@
       <c r="AT2" s="2">
         <v>16</v>
       </c>
+      <c r="AU2" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -961,8 +970,11 @@
       <c r="AT3" s="2">
         <v>15</v>
       </c>
+      <c r="AU3" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1101,8 +1113,11 @@
       <c r="AT4" s="2">
         <v>12</v>
       </c>
+      <c r="AU4" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1241,8 +1256,11 @@
       <c r="AT5" s="2">
         <v>14</v>
       </c>
+      <c r="AU5" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1381,8 +1399,11 @@
       <c r="AT6" s="2">
         <v>10</v>
       </c>
+      <c r="AU6" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1521,8 +1542,11 @@
       <c r="AT7" s="2">
         <v>15</v>
       </c>
+      <c r="AU7" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1661,8 +1685,11 @@
       <c r="AT8" s="2">
         <v>16</v>
       </c>
+      <c r="AU8" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1801,8 +1828,11 @@
       <c r="AT9" s="2">
         <v>22</v>
       </c>
+      <c r="AU9" s="2">
+        <v>21</v>
+      </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1941,8 +1971,11 @@
       <c r="AT10" s="2">
         <v>11</v>
       </c>
+      <c r="AU10" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2080,6 +2113,9 @@
       </c>
       <c r="AT11" s="2">
         <v>20</v>
+      </c>
+      <c r="AU11" s="2">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="623" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08B0AF16-DD72-407C-A4C5-A7E9F3FB9A89}"/>
+  <xr:revisionPtr revIDLastSave="640" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAE9AE4B-502E-4780-8631-769E9676CC1A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Lay's</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>11-ago</t>
+  </si>
+  <si>
+    <t>14-ago</t>
   </si>
 </sst>
 </file>
@@ -530,10 +533,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AU11"/>
+  <dimension ref="A1:AV11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AZ8" sqref="AZ8"/>
+      <selection activeCell="AY9" sqref="AY9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +548,7 @@
     <col min="10" max="38" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -687,8 +690,11 @@
       <c r="AU1" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AV1" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -830,8 +836,11 @@
       <c r="AU2" s="2">
         <v>17</v>
       </c>
+      <c r="AV2" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -973,8 +982,11 @@
       <c r="AU3" s="2">
         <v>16</v>
       </c>
+      <c r="AV3" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1116,8 +1128,11 @@
       <c r="AU4" s="2">
         <v>12</v>
       </c>
+      <c r="AV4" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1259,8 +1274,11 @@
       <c r="AU5" s="2">
         <v>12</v>
       </c>
+      <c r="AV5" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1402,8 +1420,11 @@
       <c r="AU6" s="2">
         <v>13</v>
       </c>
+      <c r="AV6" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1545,8 +1566,11 @@
       <c r="AU7" s="2">
         <v>12</v>
       </c>
+      <c r="AV7" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1688,8 +1712,11 @@
       <c r="AU8" s="2">
         <v>13</v>
       </c>
+      <c r="AV8" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1831,8 +1858,11 @@
       <c r="AU9" s="2">
         <v>21</v>
       </c>
+      <c r="AV9" s="2">
+        <v>21</v>
+      </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1974,8 +2004,11 @@
       <c r="AU10" s="2">
         <v>17</v>
       </c>
+      <c r="AV10" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2116,6 +2149,9 @@
       </c>
       <c r="AU11" s="2">
         <v>19</v>
+      </c>
+      <c r="AV11" s="2">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="640" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAE9AE4B-502E-4780-8631-769E9676CC1A}"/>
+  <xr:revisionPtr revIDLastSave="694" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E458058-551E-4D45-B3FA-E71BD42E90CE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Lay's</t>
   </si>
@@ -208,6 +208,18 @@
   </si>
   <si>
     <t>14-ago</t>
+  </si>
+  <si>
+    <t>16-ago</t>
+  </si>
+  <si>
+    <t>17-ago</t>
+  </si>
+  <si>
+    <t>18-ago</t>
+  </si>
+  <si>
+    <t>22-ago</t>
   </si>
 </sst>
 </file>
@@ -533,10 +545,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AV11"/>
+  <dimension ref="A1:AZ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AY9" sqref="AY9"/>
+      <selection activeCell="BC8" sqref="BC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,10 +557,10 @@
     <col min="2" max="2" width="13" hidden="1" customWidth="1"/>
     <col min="3" max="8" width="0" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" hidden="1" customWidth="1"/>
-    <col min="10" max="38" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="46" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -693,8 +705,20 @@
       <c r="AV1" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="AW1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -839,8 +863,20 @@
       <c r="AV2" s="2">
         <v>16</v>
       </c>
+      <c r="AW2" s="2">
+        <v>16</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>15</v>
+      </c>
+      <c r="AY2" s="2">
+        <v>16</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -985,8 +1021,20 @@
       <c r="AV3" s="2">
         <v>15</v>
       </c>
+      <c r="AW3" s="2">
+        <v>14</v>
+      </c>
+      <c r="AX3" s="2">
+        <v>13</v>
+      </c>
+      <c r="AY3" s="2">
+        <v>14</v>
+      </c>
+      <c r="AZ3" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1131,8 +1179,20 @@
       <c r="AV4" s="2">
         <v>11</v>
       </c>
+      <c r="AW4" s="2">
+        <v>10</v>
+      </c>
+      <c r="AX4" s="2">
+        <v>10</v>
+      </c>
+      <c r="AY4" s="2">
+        <v>11</v>
+      </c>
+      <c r="AZ4" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1277,8 +1337,20 @@
       <c r="AV5" s="2">
         <v>11</v>
       </c>
+      <c r="AW5" s="2">
+        <v>12</v>
+      </c>
+      <c r="AX5" s="2">
+        <v>13</v>
+      </c>
+      <c r="AY5" s="2">
+        <v>13</v>
+      </c>
+      <c r="AZ5" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1423,8 +1495,20 @@
       <c r="AV6" s="2">
         <v>16</v>
       </c>
+      <c r="AW6" s="2">
+        <v>13</v>
+      </c>
+      <c r="AX6" s="2">
+        <v>11</v>
+      </c>
+      <c r="AY6" s="2">
+        <v>10</v>
+      </c>
+      <c r="AZ6" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1569,8 +1653,20 @@
       <c r="AV7" s="2">
         <v>11</v>
       </c>
+      <c r="AW7" s="2">
+        <v>10</v>
+      </c>
+      <c r="AX7" s="2">
+        <v>11</v>
+      </c>
+      <c r="AY7" s="2">
+        <v>11</v>
+      </c>
+      <c r="AZ7" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1715,8 +1811,20 @@
       <c r="AV8" s="2">
         <v>12</v>
       </c>
+      <c r="AW8" s="2">
+        <v>10</v>
+      </c>
+      <c r="AX8" s="2">
+        <v>10</v>
+      </c>
+      <c r="AY8" s="2">
+        <v>11</v>
+      </c>
+      <c r="AZ8" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1861,8 +1969,20 @@
       <c r="AV9" s="2">
         <v>21</v>
       </c>
+      <c r="AW9" s="2">
+        <v>20</v>
+      </c>
+      <c r="AX9" s="2">
+        <v>19</v>
+      </c>
+      <c r="AY9" s="2">
+        <v>18</v>
+      </c>
+      <c r="AZ9" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2007,8 +2127,20 @@
       <c r="AV10" s="2">
         <v>16</v>
       </c>
+      <c r="AW10" s="2">
+        <v>14</v>
+      </c>
+      <c r="AX10" s="2">
+        <v>13</v>
+      </c>
+      <c r="AY10" s="2">
+        <v>11</v>
+      </c>
+      <c r="AZ10" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2152,6 +2284,18 @@
       </c>
       <c r="AV11" s="2">
         <v>29</v>
+      </c>
+      <c r="AW11" s="2">
+        <v>23</v>
+      </c>
+      <c r="AX11" s="2">
+        <v>22</v>
+      </c>
+      <c r="AY11" s="2">
+        <v>20</v>
+      </c>
+      <c r="AZ11" s="2">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="694" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E458058-551E-4D45-B3FA-E71BD42E90CE}"/>
+  <xr:revisionPtr revIDLastSave="708" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62B7830B-C07B-4841-956A-367DE80E5B80}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Lay's</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>22-ago</t>
+  </si>
+  <si>
+    <t>23-ago</t>
   </si>
 </sst>
 </file>
@@ -545,10 +548,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AZ11"/>
+  <dimension ref="A1:BA11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BC8" sqref="BC8"/>
+      <selection activeCell="BA12" sqref="BA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +563,7 @@
     <col min="10" max="46" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -717,8 +720,11 @@
       <c r="AZ1" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="BA1" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -875,8 +881,11 @@
       <c r="AZ2" s="2">
         <v>16</v>
       </c>
+      <c r="BA2" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1033,8 +1042,11 @@
       <c r="AZ3" s="2">
         <v>13</v>
       </c>
+      <c r="BA3" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1191,8 +1203,11 @@
       <c r="AZ4" s="2">
         <v>11</v>
       </c>
+      <c r="BA4" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1349,8 +1364,11 @@
       <c r="AZ5" s="2">
         <v>11</v>
       </c>
+      <c r="BA5" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1507,8 +1525,11 @@
       <c r="AZ6" s="2">
         <v>13</v>
       </c>
+      <c r="BA6" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1665,8 +1686,11 @@
       <c r="AZ7" s="2">
         <v>11</v>
       </c>
+      <c r="BA7" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1823,8 +1847,11 @@
       <c r="AZ8" s="2">
         <v>14</v>
       </c>
+      <c r="BA8" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1981,8 +2008,11 @@
       <c r="AZ9" s="2">
         <v>16</v>
       </c>
+      <c r="BA9" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2139,8 +2169,11 @@
       <c r="AZ10" s="2">
         <v>7</v>
       </c>
+      <c r="BA10" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2296,6 +2329,9 @@
       </c>
       <c r="AZ11" s="2">
         <v>16</v>
+      </c>
+      <c r="BA11" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="708" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62B7830B-C07B-4841-956A-367DE80E5B80}"/>
+  <xr:revisionPtr revIDLastSave="723" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F645A70-E00C-4780-A4F7-ECC6AE7607F9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Lay's</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>23-ago</t>
+  </si>
+  <si>
+    <t>24-ago</t>
   </si>
 </sst>
 </file>
@@ -548,10 +551,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BA11"/>
+  <dimension ref="A1:BB11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BA12" sqref="BA12"/>
+      <selection activeCell="BB12" sqref="BB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +566,7 @@
     <col min="10" max="46" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -723,8 +726,11 @@
       <c r="BA1" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="BB1" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -884,8 +890,11 @@
       <c r="BA2" s="2">
         <v>15</v>
       </c>
+      <c r="BB2" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1045,8 +1054,11 @@
       <c r="BA3" s="2">
         <v>13</v>
       </c>
+      <c r="BB3" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1206,8 +1218,11 @@
       <c r="BA4" s="2">
         <v>10</v>
       </c>
+      <c r="BB4" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1367,8 +1382,11 @@
       <c r="BA5" s="2">
         <v>12</v>
       </c>
+      <c r="BB5" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1528,8 +1546,11 @@
       <c r="BA6" s="2">
         <v>12</v>
       </c>
+      <c r="BB6" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1689,8 +1710,11 @@
       <c r="BA7" s="2">
         <v>12</v>
       </c>
+      <c r="BB7" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1850,8 +1874,11 @@
       <c r="BA8" s="2">
         <v>13</v>
       </c>
+      <c r="BB8" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2011,8 +2038,11 @@
       <c r="BA9" s="2">
         <v>17</v>
       </c>
+      <c r="BB9" s="2">
+        <v>18</v>
+      </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2172,8 +2202,11 @@
       <c r="BA10" s="2">
         <v>14</v>
       </c>
+      <c r="BB10" s="2">
+        <v>25</v>
+      </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2332,6 +2365,9 @@
       </c>
       <c r="BA11" s="2">
         <v>15</v>
+      </c>
+      <c r="BB11" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="723" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F645A70-E00C-4780-A4F7-ECC6AE7607F9}"/>
+  <xr:revisionPtr revIDLastSave="737" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{823520E3-F52F-45BD-91ED-DF1D759941D3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Lay's</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>24-ago</t>
+  </si>
+  <si>
+    <t>25-ago</t>
   </si>
 </sst>
 </file>
@@ -551,10 +554,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BB11"/>
+  <dimension ref="A1:BC11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BB12" sqref="BB12"/>
+      <selection activeCell="BI8" sqref="BI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,7 +569,7 @@
     <col min="10" max="46" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -729,8 +732,11 @@
       <c r="BB1" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="BC1" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -893,8 +899,11 @@
       <c r="BB2" s="2">
         <v>15</v>
       </c>
+      <c r="BC2" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1057,8 +1066,11 @@
       <c r="BB3" s="2">
         <v>11</v>
       </c>
+      <c r="BC3" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1221,8 +1233,11 @@
       <c r="BB4" s="2">
         <v>10</v>
       </c>
+      <c r="BC4" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1385,8 +1400,11 @@
       <c r="BB5" s="2">
         <v>14</v>
       </c>
+      <c r="BC5" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1549,8 +1567,11 @@
       <c r="BB6" s="2">
         <v>10</v>
       </c>
+      <c r="BC6" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1713,8 +1734,11 @@
       <c r="BB7" s="2">
         <v>13</v>
       </c>
+      <c r="BC7" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1877,8 +1901,11 @@
       <c r="BB8" s="2">
         <v>12</v>
       </c>
+      <c r="BC8" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2041,8 +2068,11 @@
       <c r="BB9" s="2">
         <v>18</v>
       </c>
+      <c r="BC9" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2205,8 +2235,11 @@
       <c r="BB10" s="2">
         <v>25</v>
       </c>
+      <c r="BC10" s="2">
+        <v>25</v>
+      </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2367,6 +2400,9 @@
         <v>15</v>
       </c>
       <c r="BB11" s="2">
+        <v>14</v>
+      </c>
+      <c r="BC11" s="2">
         <v>14</v>
       </c>
     </row>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="737" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{823520E3-F52F-45BD-91ED-DF1D759941D3}"/>
+  <xr:revisionPtr revIDLastSave="752" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63CFBE64-4715-4CA8-B40D-4B25056E4E4F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Lay's</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>25-ago</t>
+  </si>
+  <si>
+    <t>28-ago</t>
   </si>
 </sst>
 </file>
@@ -554,10 +557,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BC11"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BI8" sqref="BI8"/>
+      <selection activeCell="BB16" sqref="BB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +572,7 @@
     <col min="10" max="46" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -735,8 +738,11 @@
       <c r="BC1" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="BD1" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -902,8 +908,11 @@
       <c r="BC2" s="2">
         <v>16</v>
       </c>
+      <c r="BD2" s="2">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1069,8 +1078,11 @@
       <c r="BC3" s="2">
         <v>9</v>
       </c>
+      <c r="BD3" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1236,8 +1248,11 @@
       <c r="BC4" s="2">
         <v>9</v>
       </c>
+      <c r="BD4" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1403,8 +1418,11 @@
       <c r="BC5" s="2">
         <v>11</v>
       </c>
+      <c r="BD5" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1570,8 +1588,11 @@
       <c r="BC6" s="2">
         <v>12</v>
       </c>
+      <c r="BD6" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1737,8 +1758,11 @@
       <c r="BC7" s="2">
         <v>14</v>
       </c>
+      <c r="BD7" s="2">
+        <v>18</v>
+      </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1904,8 +1928,11 @@
       <c r="BC8" s="2">
         <v>11</v>
       </c>
+      <c r="BD8" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2071,8 +2098,11 @@
       <c r="BC9" s="2">
         <v>16</v>
       </c>
+      <c r="BD9" s="2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2238,8 +2268,11 @@
       <c r="BC10" s="2">
         <v>25</v>
       </c>
+      <c r="BD10" s="2">
+        <v>32</v>
+      </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2404,6 +2437,9 @@
       </c>
       <c r="BC11" s="2">
         <v>14</v>
+      </c>
+      <c r="BD11" s="2">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="752" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63CFBE64-4715-4CA8-B40D-4B25056E4E4F}"/>
+  <xr:revisionPtr revIDLastSave="766" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14A25DE0-BAC1-4A6C-85F4-0A6D2E536249}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Lay's</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>28-ago</t>
+  </si>
+  <si>
+    <t>29-ago</t>
   </si>
 </sst>
 </file>
@@ -557,10 +560,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BD11"/>
+  <dimension ref="A1:BE11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BB16" sqref="BB16"/>
+      <selection activeCell="BM10" sqref="BM10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,7 +575,7 @@
     <col min="10" max="46" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -741,8 +744,11 @@
       <c r="BD1" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="BE1" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -911,8 +917,11 @@
       <c r="BD2" s="2">
         <v>18</v>
       </c>
+      <c r="BE2" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1081,8 +1090,11 @@
       <c r="BD3" s="2">
         <v>10</v>
       </c>
+      <c r="BE3" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1251,8 +1263,11 @@
       <c r="BD4" s="2">
         <v>10</v>
       </c>
+      <c r="BE4" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1421,8 +1436,11 @@
       <c r="BD5" s="2">
         <v>13</v>
       </c>
+      <c r="BE5" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1591,8 +1609,11 @@
       <c r="BD6" s="2">
         <v>14</v>
       </c>
+      <c r="BE6" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1761,8 +1782,11 @@
       <c r="BD7" s="2">
         <v>18</v>
       </c>
+      <c r="BE7" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1931,8 +1955,11 @@
       <c r="BD8" s="2">
         <v>10</v>
       </c>
+      <c r="BE8" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2101,8 +2128,11 @@
       <c r="BD9" s="2">
         <v>20</v>
       </c>
+      <c r="BE9" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2271,8 +2301,11 @@
       <c r="BD10" s="2">
         <v>32</v>
       </c>
+      <c r="BE10" s="2">
+        <v>19</v>
+      </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2440,6 +2473,9 @@
       </c>
       <c r="BD11" s="2">
         <v>19</v>
+      </c>
+      <c r="BE11" s="2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="766" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14A25DE0-BAC1-4A6C-85F4-0A6D2E536249}"/>
+  <xr:revisionPtr revIDLastSave="781" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8104600-39A9-41AA-ABC7-290507AD3B0D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Lay's</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>29-ago</t>
+  </si>
+  <si>
+    <t>30-ago</t>
   </si>
 </sst>
 </file>
@@ -560,10 +563,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BE11"/>
+  <dimension ref="A1:BF11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BM10" sqref="BM10"/>
+      <selection activeCell="BG8" sqref="BG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +578,7 @@
     <col min="10" max="46" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -747,8 +750,11 @@
       <c r="BE1" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="BF1" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -920,8 +926,11 @@
       <c r="BE2" s="2">
         <v>13</v>
       </c>
+      <c r="BF2" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1093,8 +1102,11 @@
       <c r="BE3" s="2">
         <v>8</v>
       </c>
+      <c r="BF3" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1266,8 +1278,11 @@
       <c r="BE4" s="2">
         <v>9</v>
       </c>
+      <c r="BF4" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1439,8 +1454,11 @@
       <c r="BE5" s="2">
         <v>10</v>
       </c>
+      <c r="BF5" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1612,8 +1630,11 @@
       <c r="BE6" s="2">
         <v>10</v>
       </c>
+      <c r="BF6" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1785,8 +1806,11 @@
       <c r="BE7" s="2">
         <v>15</v>
       </c>
+      <c r="BF7" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1958,8 +1982,11 @@
       <c r="BE8" s="2">
         <v>10</v>
       </c>
+      <c r="BF8" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2131,8 +2158,11 @@
       <c r="BE9" s="2">
         <v>15</v>
       </c>
+      <c r="BF9" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2304,8 +2334,11 @@
       <c r="BE10" s="2">
         <v>19</v>
       </c>
+      <c r="BF10" s="2">
+        <v>18</v>
+      </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2476,6 +2509,9 @@
       </c>
       <c r="BE11" s="2">
         <v>10</v>
+      </c>
+      <c r="BF11" s="2">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="781" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8104600-39A9-41AA-ABC7-290507AD3B0D}"/>
+  <xr:revisionPtr revIDLastSave="798" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD6F574E-F991-4456-9190-BB1B81C3C766}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Lay's</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>30-ago</t>
+  </si>
+  <si>
+    <t>31-ago</t>
   </si>
 </sst>
 </file>
@@ -563,10 +566,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BF11"/>
+  <dimension ref="A1:BG11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BG8" sqref="BG8"/>
+      <selection activeCell="BG12" sqref="BG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,10 +578,10 @@
     <col min="2" max="2" width="13" hidden="1" customWidth="1"/>
     <col min="3" max="8" width="0" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" hidden="1" customWidth="1"/>
-    <col min="10" max="46" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="52" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -753,8 +756,11 @@
       <c r="BF1" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="BG1" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -929,8 +935,11 @@
       <c r="BF2" s="2">
         <v>14</v>
       </c>
+      <c r="BG2" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1105,8 +1114,11 @@
       <c r="BF3" s="2">
         <v>10</v>
       </c>
+      <c r="BG3" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1281,8 +1293,11 @@
       <c r="BF4" s="2">
         <v>10</v>
       </c>
+      <c r="BG4" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1457,8 +1472,11 @@
       <c r="BF5" s="2">
         <v>13</v>
       </c>
+      <c r="BG5" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1633,8 +1651,11 @@
       <c r="BF6" s="2">
         <v>9</v>
       </c>
+      <c r="BG6" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1809,8 +1830,11 @@
       <c r="BF7" s="2">
         <v>16</v>
       </c>
+      <c r="BG7" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1985,8 +2009,11 @@
       <c r="BF8" s="2">
         <v>12</v>
       </c>
+      <c r="BG8" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2161,8 +2188,11 @@
       <c r="BF9" s="2">
         <v>17</v>
       </c>
+      <c r="BG9" s="2">
+        <v>18</v>
+      </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2337,8 +2367,11 @@
       <c r="BF10" s="2">
         <v>18</v>
       </c>
+      <c r="BG10" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2512,6 +2545,9 @@
       </c>
       <c r="BF11" s="2">
         <v>9</v>
+      </c>
+      <c r="BG11" s="2">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="798" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD6F574E-F991-4456-9190-BB1B81C3C766}"/>
+  <xr:revisionPtr revIDLastSave="814" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DA213D4-95EB-48D3-89AC-ECF43386B3C3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Lay's</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>31-ago</t>
+  </si>
+  <si>
+    <t>01-sep</t>
   </si>
 </sst>
 </file>
@@ -566,10 +569,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BG11"/>
+  <dimension ref="A1:BH11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BG12" sqref="BG12"/>
+      <selection activeCell="BF6" sqref="BF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +584,7 @@
     <col min="10" max="52" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -759,8 +762,11 @@
       <c r="BG1" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="BH1" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -938,8 +944,11 @@
       <c r="BG2" s="2">
         <v>14</v>
       </c>
+      <c r="BH2" s="2">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1117,8 +1126,11 @@
       <c r="BG3" s="2">
         <v>11</v>
       </c>
+      <c r="BH3" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1296,8 +1308,11 @@
       <c r="BG4" s="2">
         <v>10</v>
       </c>
+      <c r="BH4" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1475,8 +1490,11 @@
       <c r="BG5" s="2">
         <v>15</v>
       </c>
+      <c r="BH5" s="2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1654,8 +1672,11 @@
       <c r="BG6" s="2">
         <v>8</v>
       </c>
+      <c r="BH6" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1833,8 +1854,11 @@
       <c r="BG7" s="2">
         <v>17</v>
       </c>
+      <c r="BH7" s="2">
+        <v>27</v>
+      </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2012,8 +2036,11 @@
       <c r="BG8" s="2">
         <v>13</v>
       </c>
+      <c r="BH8" s="2">
+        <v>23</v>
+      </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2191,8 +2218,11 @@
       <c r="BG9" s="2">
         <v>18</v>
       </c>
+      <c r="BH9" s="2">
+        <v>29</v>
+      </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2370,8 +2400,11 @@
       <c r="BG10" s="2">
         <v>17</v>
       </c>
+      <c r="BH10" s="2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2548,6 +2581,9 @@
       </c>
       <c r="BG11" s="2">
         <v>8</v>
+      </c>
+      <c r="BH11" s="2">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="814" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DA213D4-95EB-48D3-89AC-ECF43386B3C3}"/>
+  <xr:revisionPtr revIDLastSave="828" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69986C60-80FC-4D09-9D59-74EE0C6C27E8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Lay's</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>01-sep</t>
+  </si>
+  <si>
+    <t>04-sep</t>
   </si>
 </sst>
 </file>
@@ -569,10 +572,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BH11"/>
+  <dimension ref="A1:BI11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BF6" sqref="BF6"/>
+      <selection activeCell="BM9" sqref="BM9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +587,7 @@
     <col min="10" max="52" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -765,8 +768,11 @@
       <c r="BH1" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="BI1" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -947,8 +953,11 @@
       <c r="BH2" s="2">
         <v>22</v>
       </c>
+      <c r="BI2" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1129,8 +1138,11 @@
       <c r="BH3" s="2">
         <v>17</v>
       </c>
+      <c r="BI3" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1311,8 +1323,11 @@
       <c r="BH4" s="2">
         <v>15</v>
       </c>
+      <c r="BI4" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1493,8 +1508,11 @@
       <c r="BH5" s="2">
         <v>20</v>
       </c>
+      <c r="BI5" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1675,8 +1693,11 @@
       <c r="BH6" s="2">
         <v>12</v>
       </c>
+      <c r="BI6" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1857,8 +1878,11 @@
       <c r="BH7" s="2">
         <v>27</v>
       </c>
+      <c r="BI7" s="2">
+        <v>21</v>
+      </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2039,8 +2063,11 @@
       <c r="BH8" s="2">
         <v>23</v>
       </c>
+      <c r="BI8" s="2">
+        <v>18</v>
+      </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2221,8 +2248,11 @@
       <c r="BH9" s="2">
         <v>29</v>
       </c>
+      <c r="BI9" s="2">
+        <v>18</v>
+      </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2403,8 +2433,11 @@
       <c r="BH10" s="2">
         <v>20</v>
       </c>
+      <c r="BI10" s="2">
+        <v>19</v>
+      </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2584,6 +2617,9 @@
       </c>
       <c r="BH11" s="2">
         <v>11</v>
+      </c>
+      <c r="BI11" s="2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="828" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69986C60-80FC-4D09-9D59-74EE0C6C27E8}"/>
+  <xr:revisionPtr revIDLastSave="844" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AC28990-D866-4D2F-8161-AD043F1B433F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Lay's</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>04-sep</t>
+  </si>
+  <si>
+    <t>05-sep</t>
   </si>
 </sst>
 </file>
@@ -572,10 +575,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BI11"/>
+  <dimension ref="A1:BJ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BM9" sqref="BM9"/>
+      <selection activeCell="BK7" sqref="BK7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +590,7 @@
     <col min="10" max="52" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -771,8 +774,11 @@
       <c r="BI1" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BJ1" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -956,8 +962,11 @@
       <c r="BI2" s="2">
         <v>15</v>
       </c>
+      <c r="BJ2" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1141,8 +1150,11 @@
       <c r="BI3" s="2">
         <v>12</v>
       </c>
+      <c r="BJ3" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1326,8 +1338,11 @@
       <c r="BI4" s="2">
         <v>11</v>
       </c>
+      <c r="BJ4" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1511,8 +1526,11 @@
       <c r="BI5" s="2">
         <v>12</v>
       </c>
+      <c r="BJ5" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1696,8 +1714,11 @@
       <c r="BI6" s="2">
         <v>10</v>
       </c>
+      <c r="BJ6" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1881,8 +1902,11 @@
       <c r="BI7" s="2">
         <v>21</v>
       </c>
+      <c r="BJ7" s="2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2066,8 +2090,11 @@
       <c r="BI8" s="2">
         <v>18</v>
       </c>
+      <c r="BJ8" s="2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2251,8 +2278,11 @@
       <c r="BI9" s="2">
         <v>18</v>
       </c>
+      <c r="BJ9" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2436,8 +2466,11 @@
       <c r="BI10" s="2">
         <v>19</v>
       </c>
+      <c r="BJ10" s="2">
+        <v>18</v>
+      </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2620,6 +2653,9 @@
       </c>
       <c r="BI11" s="2">
         <v>6</v>
+      </c>
+      <c r="BJ11" s="2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="844" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AC28990-D866-4D2F-8161-AD043F1B433F}"/>
+  <xr:revisionPtr revIDLastSave="860" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9029D70-7E92-4B88-BF38-002097FA6B0E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Lay's</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>05-sep</t>
+  </si>
+  <si>
+    <t>06-sep</t>
   </si>
 </sst>
 </file>
@@ -575,10 +578,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BJ11"/>
+  <dimension ref="A1:BK11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BK7" sqref="BK7"/>
+      <selection activeCell="BK12" sqref="BK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,10 +590,10 @@
     <col min="2" max="2" width="13" hidden="1" customWidth="1"/>
     <col min="3" max="8" width="0" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" hidden="1" customWidth="1"/>
-    <col min="10" max="52" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="57" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -777,8 +780,11 @@
       <c r="BJ1" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="BK1" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -965,8 +971,11 @@
       <c r="BJ2" s="2">
         <v>16</v>
       </c>
+      <c r="BK2" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1153,8 +1162,11 @@
       <c r="BJ3" s="2">
         <v>13</v>
       </c>
+      <c r="BK3" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1341,8 +1353,11 @@
       <c r="BJ4" s="2">
         <v>11</v>
       </c>
+      <c r="BK4" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1529,8 +1544,11 @@
       <c r="BJ5" s="2">
         <v>13</v>
       </c>
+      <c r="BK5" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1717,8 +1735,11 @@
       <c r="BJ6" s="2">
         <v>9</v>
       </c>
+      <c r="BK6" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1905,8 +1926,11 @@
       <c r="BJ7" s="2">
         <v>20</v>
       </c>
+      <c r="BK7" s="2">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2093,8 +2117,11 @@
       <c r="BJ8" s="2">
         <v>20</v>
       </c>
+      <c r="BK8" s="2">
+        <v>22</v>
+      </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2281,8 +2308,11 @@
       <c r="BJ9" s="2">
         <v>17</v>
       </c>
+      <c r="BK9" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2469,8 +2499,11 @@
       <c r="BJ10" s="2">
         <v>18</v>
       </c>
+      <c r="BK10" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2656,6 +2689,9 @@
       </c>
       <c r="BJ11" s="2">
         <v>10</v>
+      </c>
+      <c r="BK11" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="860" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9029D70-7E92-4B88-BF38-002097FA6B0E}"/>
+  <xr:revisionPtr revIDLastSave="877" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED97842A-3308-491E-98A5-1FED6923A70A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Lay's</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>06-sep</t>
+  </si>
+  <si>
+    <t>07-sep</t>
   </si>
 </sst>
 </file>
@@ -578,10 +581,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BK11"/>
+  <dimension ref="A1:BL11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BK12" sqref="BK12"/>
+      <selection activeCell="BL12" sqref="BL12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +596,7 @@
     <col min="10" max="57" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -783,8 +786,11 @@
       <c r="BK1" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="BL1" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -974,8 +980,11 @@
       <c r="BK2" s="2">
         <v>16</v>
       </c>
+      <c r="BL2" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1165,8 +1174,11 @@
       <c r="BK3" s="2">
         <v>14</v>
       </c>
+      <c r="BL3" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1356,8 +1368,11 @@
       <c r="BK4" s="2">
         <v>11</v>
       </c>
+      <c r="BL4" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1547,8 +1562,11 @@
       <c r="BK5" s="2">
         <v>15</v>
       </c>
+      <c r="BL5" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1738,8 +1756,11 @@
       <c r="BK6" s="2">
         <v>8</v>
       </c>
+      <c r="BL6" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1929,8 +1950,11 @@
       <c r="BK7" s="2">
         <v>19</v>
       </c>
+      <c r="BL7" s="2">
+        <v>18</v>
+      </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2120,8 +2144,11 @@
       <c r="BK8" s="2">
         <v>22</v>
       </c>
+      <c r="BL8" s="2">
+        <v>24</v>
+      </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2311,8 +2338,11 @@
       <c r="BK9" s="2">
         <v>16</v>
       </c>
+      <c r="BL9" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2502,8 +2532,11 @@
       <c r="BK10" s="2">
         <v>17</v>
       </c>
+      <c r="BL10" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2692,6 +2725,9 @@
       </c>
       <c r="BK11" s="2">
         <v>15</v>
+      </c>
+      <c r="BL11" s="2">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="877" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED97842A-3308-491E-98A5-1FED6923A70A}"/>
+  <xr:revisionPtr revIDLastSave="893" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9550308E-6FE8-445C-9545-64FC91D696A3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Lay's</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>07-sep</t>
+  </si>
+  <si>
+    <t>08-sep</t>
   </si>
 </sst>
 </file>
@@ -581,10 +584,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BL11"/>
+  <dimension ref="A1:BM11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BL12" sqref="BL12"/>
+      <selection activeCell="BM2" sqref="BM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,7 +599,7 @@
     <col min="10" max="57" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -789,8 +792,11 @@
       <c r="BL1" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="BM1" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -983,8 +989,11 @@
       <c r="BL2" s="2">
         <v>17</v>
       </c>
+      <c r="BM2" s="3">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1177,8 +1186,11 @@
       <c r="BL3" s="2">
         <v>14</v>
       </c>
+      <c r="BM3" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1371,8 +1383,11 @@
       <c r="BL4" s="2">
         <v>11</v>
       </c>
+      <c r="BM4" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1565,8 +1580,11 @@
       <c r="BL5" s="2">
         <v>13</v>
       </c>
+      <c r="BM5" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1759,8 +1777,11 @@
       <c r="BL6" s="2">
         <v>8</v>
       </c>
+      <c r="BM6" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1953,8 +1974,11 @@
       <c r="BL7" s="2">
         <v>18</v>
       </c>
+      <c r="BM7" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2147,8 +2171,11 @@
       <c r="BL8" s="2">
         <v>24</v>
       </c>
+      <c r="BM8" s="2">
+        <v>23</v>
+      </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2341,8 +2368,11 @@
       <c r="BL9" s="2">
         <v>14</v>
       </c>
+      <c r="BM9" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2535,8 +2565,11 @@
       <c r="BL10" s="2">
         <v>15</v>
       </c>
+      <c r="BM10" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2728,6 +2761,9 @@
       </c>
       <c r="BL11" s="2">
         <v>18</v>
+      </c>
+      <c r="BM11" s="2">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="893" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9550308E-6FE8-445C-9545-64FC91D696A3}"/>
+  <xr:revisionPtr revIDLastSave="908" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7EFF2CE-CBA0-4C96-A437-C3847151A472}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Lay's</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>08-sep</t>
+  </si>
+  <si>
+    <t>11-sep</t>
   </si>
 </sst>
 </file>
@@ -584,10 +587,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BM11"/>
+  <dimension ref="A1:BN11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BM2" sqref="BM2"/>
+      <selection activeCell="BN12" sqref="BN12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,7 +602,7 @@
     <col min="10" max="57" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -795,8 +798,11 @@
       <c r="BM1" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="BN1" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -992,8 +998,11 @@
       <c r="BM2" s="3">
         <v>16</v>
       </c>
+      <c r="BN2" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1189,8 +1198,11 @@
       <c r="BM3" s="2">
         <v>16</v>
       </c>
+      <c r="BN3" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1386,8 +1398,11 @@
       <c r="BM4" s="2">
         <v>12</v>
       </c>
+      <c r="BN4" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1583,8 +1598,11 @@
       <c r="BM5" s="2">
         <v>12</v>
       </c>
+      <c r="BN5" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1780,8 +1798,11 @@
       <c r="BM6" s="2">
         <v>9</v>
       </c>
+      <c r="BN6" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1977,8 +1998,11 @@
       <c r="BM7" s="2">
         <v>17</v>
       </c>
+      <c r="BN7" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2174,8 +2198,11 @@
       <c r="BM8" s="2">
         <v>23</v>
       </c>
+      <c r="BN8" s="2">
+        <v>22</v>
+      </c>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2371,8 +2398,11 @@
       <c r="BM9" s="2">
         <v>14</v>
       </c>
+      <c r="BN9" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2568,8 +2598,11 @@
       <c r="BM10" s="2">
         <v>13</v>
       </c>
+      <c r="BN10" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2764,6 +2797,9 @@
       </c>
       <c r="BM11" s="2">
         <v>12</v>
+      </c>
+      <c r="BN11" s="2">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="908" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7EFF2CE-CBA0-4C96-A437-C3847151A472}"/>
+  <xr:revisionPtr revIDLastSave="924" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{177CCDC9-AA9B-498D-A8A4-F1FE54D162A8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Lay's</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>11-sep</t>
+  </si>
+  <si>
+    <t>12-sep</t>
   </si>
 </sst>
 </file>
@@ -587,10 +590,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BN11"/>
+  <dimension ref="A1:BO11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BN12" sqref="BN12"/>
+      <selection activeCell="BR5" sqref="BR5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,7 +605,7 @@
     <col min="10" max="57" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -801,8 +804,11 @@
       <c r="BN1" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="BO1" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1001,8 +1007,11 @@
       <c r="BN2" s="2">
         <v>15</v>
       </c>
+      <c r="BO2" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1201,8 +1210,11 @@
       <c r="BN3" s="2">
         <v>14</v>
       </c>
+      <c r="BO3" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1401,8 +1413,11 @@
       <c r="BN4" s="2">
         <v>12</v>
       </c>
+      <c r="BO4" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1601,8 +1616,11 @@
       <c r="BN5" s="2">
         <v>11</v>
       </c>
+      <c r="BO5" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1801,8 +1819,11 @@
       <c r="BN6" s="2">
         <v>12</v>
       </c>
+      <c r="BO6" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2001,8 +2022,11 @@
       <c r="BN7" s="2">
         <v>16</v>
       </c>
+      <c r="BO7" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2201,8 +2225,11 @@
       <c r="BN8" s="2">
         <v>22</v>
       </c>
+      <c r="BO8" s="2">
+        <v>22</v>
+      </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2401,8 +2428,11 @@
       <c r="BN9" s="2">
         <v>12</v>
       </c>
+      <c r="BO9" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2601,8 +2631,11 @@
       <c r="BN10" s="2">
         <v>12</v>
       </c>
+      <c r="BO10" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2800,6 +2833,9 @@
       </c>
       <c r="BN11" s="2">
         <v>9</v>
+      </c>
+      <c r="BO11" s="2">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="924" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{177CCDC9-AA9B-498D-A8A4-F1FE54D162A8}"/>
+  <xr:revisionPtr revIDLastSave="940" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7285135D-0678-4051-A50B-1760F1E3661F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Lay's</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>12-sep</t>
+  </si>
+  <si>
+    <t>13-sep</t>
   </si>
 </sst>
 </file>
@@ -590,10 +593,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BO11"/>
+  <dimension ref="A1:BP11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BR5" sqref="BR5"/>
+      <selection activeCell="BR8" sqref="BR8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +608,7 @@
     <col min="10" max="57" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -807,8 +810,11 @@
       <c r="BO1" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="BP1" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1010,8 +1016,11 @@
       <c r="BO2" s="2">
         <v>15</v>
       </c>
+      <c r="BP2" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1213,8 +1222,11 @@
       <c r="BO3" s="2">
         <v>14</v>
       </c>
+      <c r="BP3" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1416,8 +1428,11 @@
       <c r="BO4" s="2">
         <v>12</v>
       </c>
+      <c r="BP4" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1619,8 +1634,11 @@
       <c r="BO5" s="2">
         <v>13</v>
       </c>
+      <c r="BP5" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1822,8 +1840,11 @@
       <c r="BO6" s="2">
         <v>11</v>
       </c>
+      <c r="BP6" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2025,8 +2046,11 @@
       <c r="BO7" s="2">
         <v>16</v>
       </c>
+      <c r="BP7" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2228,8 +2252,11 @@
       <c r="BO8" s="2">
         <v>22</v>
       </c>
+      <c r="BP8" s="2">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2431,8 +2458,11 @@
       <c r="BO9" s="2">
         <v>10</v>
       </c>
+      <c r="BP9" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2634,8 +2664,11 @@
       <c r="BO10" s="2">
         <v>11</v>
       </c>
+      <c r="BP10" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2836,6 +2869,9 @@
       </c>
       <c r="BO11" s="2">
         <v>12</v>
+      </c>
+      <c r="BP11" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="940" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7285135D-0678-4051-A50B-1760F1E3661F}"/>
+  <xr:revisionPtr revIDLastSave="957" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57E274BC-C967-40A8-B299-32A11B1B3F1F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Lay's</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>13-sep</t>
+  </si>
+  <si>
+    <t>14-sep</t>
   </si>
 </sst>
 </file>
@@ -593,10 +596,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BP11"/>
+  <dimension ref="A1:BQ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BR8" sqref="BR8"/>
+      <selection activeCell="BQ12" sqref="BQ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,10 +608,10 @@
     <col min="2" max="2" width="13" hidden="1" customWidth="1"/>
     <col min="3" max="8" width="0" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" hidden="1" customWidth="1"/>
-    <col min="10" max="57" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="63" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -813,8 +816,11 @@
       <c r="BP1" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="BQ1" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1019,8 +1025,11 @@
       <c r="BP2" s="2">
         <v>14</v>
       </c>
+      <c r="BQ2" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1225,8 +1234,11 @@
       <c r="BP3" s="2">
         <v>15</v>
       </c>
+      <c r="BQ3" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1431,8 +1443,11 @@
       <c r="BP4" s="2">
         <v>12</v>
       </c>
+      <c r="BQ4" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1637,8 +1652,11 @@
       <c r="BP5" s="2">
         <v>14</v>
       </c>
+      <c r="BQ5" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1843,8 +1861,11 @@
       <c r="BP6" s="2">
         <v>10</v>
       </c>
+      <c r="BQ6" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2049,8 +2070,11 @@
       <c r="BP7" s="2">
         <v>17</v>
       </c>
+      <c r="BQ7" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2255,8 +2279,11 @@
       <c r="BP8" s="2">
         <v>21</v>
       </c>
+      <c r="BQ8" s="2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2461,8 +2488,11 @@
       <c r="BP9" s="2">
         <v>10</v>
       </c>
+      <c r="BQ9" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2667,8 +2697,11 @@
       <c r="BP10" s="2">
         <v>10</v>
       </c>
+      <c r="BQ10" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2872,6 +2905,9 @@
       </c>
       <c r="BP11" s="2">
         <v>14</v>
+      </c>
+      <c r="BQ11" s="2">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="957" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57E274BC-C967-40A8-B299-32A11B1B3F1F}"/>
+  <xr:revisionPtr revIDLastSave="972" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EAC75C1-6017-429C-8FF5-D86219BF15D5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Lay's</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>14-sep</t>
+  </si>
+  <si>
+    <t>15-sep</t>
   </si>
 </sst>
 </file>
@@ -596,10 +599,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BQ11"/>
+  <dimension ref="A1:BR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BQ12" sqref="BQ12"/>
+      <selection activeCell="BR12" sqref="BR12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +614,7 @@
     <col min="10" max="63" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -819,8 +822,11 @@
       <c r="BQ1" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="BR1" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1028,8 +1034,11 @@
       <c r="BQ2" s="2">
         <v>14</v>
       </c>
+      <c r="BR2" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1237,8 +1246,11 @@
       <c r="BQ3" s="2">
         <v>13</v>
       </c>
+      <c r="BR3" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1446,8 +1458,11 @@
       <c r="BQ4" s="2">
         <v>12</v>
       </c>
+      <c r="BR4" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1655,8 +1670,11 @@
       <c r="BQ5" s="2">
         <v>12</v>
       </c>
+      <c r="BR5" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1864,8 +1882,11 @@
       <c r="BQ6" s="2">
         <v>10</v>
       </c>
+      <c r="BR6" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2073,8 +2094,11 @@
       <c r="BQ7" s="2">
         <v>17</v>
       </c>
+      <c r="BR7" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2282,8 +2306,11 @@
       <c r="BQ8" s="2">
         <v>20</v>
       </c>
+      <c r="BR8" s="2">
+        <v>19</v>
+      </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2491,8 +2518,11 @@
       <c r="BQ9" s="2">
         <v>9</v>
       </c>
+      <c r="BR9" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2700,8 +2730,11 @@
       <c r="BQ10" s="2">
         <v>7</v>
       </c>
+      <c r="BR10" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2908,6 +2941,9 @@
       </c>
       <c r="BQ11" s="2">
         <v>11</v>
+      </c>
+      <c r="BR11" s="2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="972" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EAC75C1-6017-429C-8FF5-D86219BF15D5}"/>
+  <xr:revisionPtr revIDLastSave="986" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8078C8C3-9E34-4B19-8FD4-2FB7BB6BE6BD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Lay's</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>15-sep</t>
+  </si>
+  <si>
+    <t>18-sep</t>
   </si>
 </sst>
 </file>
@@ -599,10 +602,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BR11"/>
+  <dimension ref="A1:BS11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BR12" sqref="BR12"/>
+      <selection activeCell="BX5" sqref="BX5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +617,7 @@
     <col min="10" max="63" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -825,8 +828,11 @@
       <c r="BR1" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="BS1" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1037,8 +1043,11 @@
       <c r="BR2" s="2">
         <v>15</v>
       </c>
+      <c r="BS2" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1249,8 +1258,11 @@
       <c r="BR3" s="2">
         <v>13</v>
       </c>
+      <c r="BS3" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1461,8 +1473,11 @@
       <c r="BR4" s="2">
         <v>12</v>
       </c>
+      <c r="BS4" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1673,8 +1688,11 @@
       <c r="BR5" s="2">
         <v>11</v>
       </c>
+      <c r="BS5" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1885,8 +1903,11 @@
       <c r="BR6" s="2">
         <v>12</v>
       </c>
+      <c r="BS6" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2097,8 +2118,11 @@
       <c r="BR7" s="2">
         <v>17</v>
       </c>
+      <c r="BS7" s="2">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2309,8 +2333,11 @@
       <c r="BR8" s="2">
         <v>19</v>
       </c>
+      <c r="BS8" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2521,8 +2548,11 @@
       <c r="BR9" s="2">
         <v>10</v>
       </c>
+      <c r="BS9" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2733,8 +2763,11 @@
       <c r="BR10" s="2">
         <v>12</v>
       </c>
+      <c r="BS10" s="2">
+        <v>19</v>
+      </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2944,6 +2977,9 @@
       </c>
       <c r="BR11" s="2">
         <v>10</v>
+      </c>
+      <c r="BS11" s="2">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="986" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8078C8C3-9E34-4B19-8FD4-2FB7BB6BE6BD}"/>
+  <xr:revisionPtr revIDLastSave="1015" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4D9EDF1-2AC7-4F15-980A-7661C9D220FF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Lay's</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t>18-sep</t>
+  </si>
+  <si>
+    <t>19-sep</t>
+  </si>
+  <si>
+    <t>20-sep</t>
   </si>
 </sst>
 </file>
@@ -602,10 +608,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BS11"/>
+  <dimension ref="A1:BU11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BX5" sqref="BX5"/>
+      <selection activeCell="BZ12" sqref="BZ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,7 +623,7 @@
     <col min="10" max="63" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:73" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -831,8 +837,14 @@
       <c r="BS1" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="BT1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1046,8 +1058,14 @@
       <c r="BS2" s="2">
         <v>14</v>
       </c>
+      <c r="BT2" s="2">
+        <v>13</v>
+      </c>
+      <c r="BU2" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1261,8 +1279,14 @@
       <c r="BS3" s="2">
         <v>10</v>
       </c>
+      <c r="BT3" s="2">
+        <v>11</v>
+      </c>
+      <c r="BU3" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1476,8 +1500,14 @@
       <c r="BS4" s="2">
         <v>12</v>
       </c>
+      <c r="BT4" s="2">
+        <v>12</v>
+      </c>
+      <c r="BU4" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1691,8 +1721,14 @@
       <c r="BS5" s="2">
         <v>10</v>
       </c>
+      <c r="BT5" s="2">
+        <v>10</v>
+      </c>
+      <c r="BU5" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1906,8 +1942,14 @@
       <c r="BS6" s="2">
         <v>13</v>
       </c>
+      <c r="BT6" s="2">
+        <v>12</v>
+      </c>
+      <c r="BU6" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2121,8 +2163,14 @@
       <c r="BS7" s="2">
         <v>19</v>
       </c>
+      <c r="BT7" s="2">
+        <v>17</v>
+      </c>
+      <c r="BU7" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2336,8 +2384,14 @@
       <c r="BS8" s="2">
         <v>17</v>
       </c>
+      <c r="BT8" s="2">
+        <v>18</v>
+      </c>
+      <c r="BU8" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2551,8 +2605,14 @@
       <c r="BS9" s="2">
         <v>11</v>
       </c>
+      <c r="BT9" s="2">
+        <v>12</v>
+      </c>
+      <c r="BU9" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2766,8 +2826,14 @@
       <c r="BS10" s="2">
         <v>19</v>
       </c>
+      <c r="BT10" s="2">
+        <v>18</v>
+      </c>
+      <c r="BU10" s="2">
+        <v>18</v>
+      </c>
     </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2980,6 +3046,12 @@
       </c>
       <c r="BS11" s="2">
         <v>7</v>
+      </c>
+      <c r="BT11" s="2">
+        <v>6</v>
+      </c>
+      <c r="BU11" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1015" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4D9EDF1-2AC7-4F15-980A-7661C9D220FF}"/>
+  <xr:revisionPtr revIDLastSave="1029" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DEE0BF9-A476-48D3-A95D-64665F8EB83C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Lay's</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>20-sep</t>
+  </si>
+  <si>
+    <t>21-sep</t>
   </si>
 </sst>
 </file>
@@ -608,10 +611,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BU11"/>
+  <dimension ref="A1:BV11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BZ12" sqref="BZ12"/>
+      <selection activeCell="BV12" sqref="BV12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +626,7 @@
     <col min="10" max="63" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -843,8 +846,11 @@
       <c r="BU1" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="BV1" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1064,8 +1070,11 @@
       <c r="BU2" s="2">
         <v>14</v>
       </c>
+      <c r="BV2" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1285,8 +1294,11 @@
       <c r="BU3" s="2">
         <v>11</v>
       </c>
+      <c r="BV3" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1506,8 +1518,11 @@
       <c r="BU4" s="2">
         <v>12</v>
       </c>
+      <c r="BV4" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1727,8 +1742,11 @@
       <c r="BU5" s="2">
         <v>10</v>
       </c>
+      <c r="BV5" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1948,8 +1966,11 @@
       <c r="BU6" s="2">
         <v>11</v>
       </c>
+      <c r="BV6" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2169,8 +2190,11 @@
       <c r="BU7" s="2">
         <v>16</v>
       </c>
+      <c r="BV7" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2390,8 +2414,11 @@
       <c r="BU8" s="2">
         <v>17</v>
       </c>
+      <c r="BV8" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2611,8 +2638,11 @@
       <c r="BU9" s="2">
         <v>11</v>
       </c>
+      <c r="BV9" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2832,8 +2862,11 @@
       <c r="BU10" s="2">
         <v>18</v>
       </c>
+      <c r="BV10" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3051,6 +3084,9 @@
         <v>6</v>
       </c>
       <c r="BU11" s="2">
+        <v>5</v>
+      </c>
+      <c r="BV11" s="2">
         <v>5</v>
       </c>
     </row>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1029" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DEE0BF9-A476-48D3-A95D-64665F8EB83C}"/>
+  <xr:revisionPtr revIDLastSave="1043" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBBE3117-EB18-4215-BC55-AF9FCB775554}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Lay's</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>21-sep</t>
+  </si>
+  <si>
+    <t>22-sep</t>
   </si>
 </sst>
 </file>
@@ -611,10 +614,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BV11"/>
+  <dimension ref="A1:BW11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BV12" sqref="BV12"/>
+      <selection activeCell="BY5" sqref="BY5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,7 +629,7 @@
     <col min="10" max="63" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -849,8 +852,11 @@
       <c r="BV1" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="BW1" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1073,8 +1079,11 @@
       <c r="BV2" s="2">
         <v>13</v>
       </c>
+      <c r="BW2" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1297,8 +1306,11 @@
       <c r="BV3" s="2">
         <v>12</v>
       </c>
+      <c r="BW3" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1521,8 +1533,11 @@
       <c r="BV4" s="2">
         <v>11</v>
       </c>
+      <c r="BW4" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1745,8 +1760,11 @@
       <c r="BV5" s="2">
         <v>11</v>
       </c>
+      <c r="BW5" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1969,8 +1987,11 @@
       <c r="BV6" s="2">
         <v>9</v>
       </c>
+      <c r="BW6" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2193,8 +2214,11 @@
       <c r="BV7" s="2">
         <v>15</v>
       </c>
+      <c r="BW7" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2417,8 +2441,11 @@
       <c r="BV8" s="2">
         <v>17</v>
       </c>
+      <c r="BW8" s="2">
+        <v>19</v>
+      </c>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2641,8 +2668,11 @@
       <c r="BV9" s="2">
         <v>15</v>
       </c>
+      <c r="BW9" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2865,8 +2895,11 @@
       <c r="BV10" s="2">
         <v>17</v>
       </c>
+      <c r="BW10" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3088,6 +3121,9 @@
       </c>
       <c r="BV11" s="2">
         <v>5</v>
+      </c>
+      <c r="BW11" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1043" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBBE3117-EB18-4215-BC55-AF9FCB775554}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEABECF-E38D-4C82-8F93-15E3D6A2B12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -617,10 +617,10 @@
   <dimension ref="A1:BW11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BY5" sqref="BY5"/>
+      <selection activeCell="BV15" sqref="BV15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="13" hidden="1" customWidth="1"/>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEABECF-E38D-4C82-8F93-15E3D6A2B12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1060" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22226036-3E5C-402D-B0D7-7D93E37EA9B0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Lay's</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>22-sep</t>
+  </si>
+  <si>
+    <t>25-sep</t>
   </si>
 </sst>
 </file>
@@ -614,13 +617,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BW11"/>
+  <dimension ref="A1:BX11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BV15" sqref="BV15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="BY16" sqref="BY16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="13" hidden="1" customWidth="1"/>
@@ -629,7 +632,7 @@
     <col min="10" max="63" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -855,8 +858,11 @@
       <c r="BW1" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="BX1" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1082,8 +1088,11 @@
       <c r="BW2" s="2">
         <v>12</v>
       </c>
+      <c r="BX2" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1309,8 +1318,11 @@
       <c r="BW3" s="2">
         <v>13</v>
       </c>
+      <c r="BX3" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1536,8 +1548,11 @@
       <c r="BW4" s="2">
         <v>12</v>
       </c>
+      <c r="BX4" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1763,8 +1778,11 @@
       <c r="BW5" s="2">
         <v>11</v>
       </c>
+      <c r="BX5" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1990,8 +2008,11 @@
       <c r="BW6" s="2">
         <v>8</v>
       </c>
+      <c r="BX6" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2217,8 +2238,11 @@
       <c r="BW7" s="2">
         <v>14</v>
       </c>
+      <c r="BX7" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2444,8 +2468,11 @@
       <c r="BW8" s="2">
         <v>19</v>
       </c>
+      <c r="BX8" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2671,8 +2698,11 @@
       <c r="BW9" s="2">
         <v>14</v>
       </c>
+      <c r="BX9" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2898,8 +2928,11 @@
       <c r="BW10" s="2">
         <v>15</v>
       </c>
+      <c r="BX10" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3124,6 +3157,9 @@
       </c>
       <c r="BW11" s="2">
         <v>3</v>
+      </c>
+      <c r="BX11" s="2">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1060" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22226036-3E5C-402D-B0D7-7D93E37EA9B0}"/>
+  <xr:revisionPtr revIDLastSave="1076" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0B81DE6-8567-4120-9D0E-E4A3BEF84707}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Lay's</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>25-sep</t>
+  </si>
+  <si>
+    <t>26-sep</t>
   </si>
 </sst>
 </file>
@@ -617,10 +620,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BX11"/>
+  <dimension ref="A1:BY11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="BY16" sqref="BY16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BY8" sqref="BY8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,10 +632,10 @@
     <col min="2" max="2" width="13" hidden="1" customWidth="1"/>
     <col min="3" max="8" width="0" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" hidden="1" customWidth="1"/>
-    <col min="10" max="63" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="71" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -861,8 +864,11 @@
       <c r="BX1" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="BY1" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1091,8 +1097,11 @@
       <c r="BX2" s="2">
         <v>11</v>
       </c>
+      <c r="BY2" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1321,8 +1330,11 @@
       <c r="BX3" s="2">
         <v>15</v>
       </c>
+      <c r="BY3" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1551,8 +1563,11 @@
       <c r="BX4" s="2">
         <v>11</v>
       </c>
+      <c r="BY4" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1781,8 +1796,11 @@
       <c r="BX5" s="2">
         <v>10</v>
       </c>
+      <c r="BY5" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2011,8 +2029,11 @@
       <c r="BX6" s="2">
         <v>9</v>
       </c>
+      <c r="BY6" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2241,8 +2262,11 @@
       <c r="BX7" s="2">
         <v>13</v>
       </c>
+      <c r="BY7" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="8" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2471,8 +2495,11 @@
       <c r="BX8" s="2">
         <v>16</v>
       </c>
+      <c r="BY8" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="9" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2701,8 +2728,11 @@
       <c r="BX9" s="2">
         <v>15</v>
       </c>
+      <c r="BY9" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="10" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2931,8 +2961,11 @@
       <c r="BX10" s="2">
         <v>15</v>
       </c>
+      <c r="BY10" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="11" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3159,6 +3192,9 @@
         <v>3</v>
       </c>
       <c r="BX11" s="2">
+        <v>8</v>
+      </c>
+      <c r="BY11" s="2">
         <v>8</v>
       </c>
     </row>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1076" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0B81DE6-8567-4120-9D0E-E4A3BEF84707}"/>
+  <xr:revisionPtr revIDLastSave="1106" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78086400-2E02-4A22-8CD2-03B25FA8E135}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>Lay's</t>
   </si>
@@ -295,6 +295,12 @@
   </si>
   <si>
     <t>26-sep</t>
+  </si>
+  <si>
+    <t>27-sep</t>
+  </si>
+  <si>
+    <t>28-sep</t>
   </si>
 </sst>
 </file>
@@ -620,10 +626,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BY11"/>
+  <dimension ref="A1:CA11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BY8" sqref="BY8"/>
+      <selection activeCell="BZ12" sqref="BZ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,7 +641,7 @@
     <col min="10" max="71" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -867,8 +873,14 @@
       <c r="BY1" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="BZ1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1100,8 +1112,14 @@
       <c r="BY2" s="2">
         <v>10</v>
       </c>
+      <c r="BZ2" s="2">
+        <v>10</v>
+      </c>
+      <c r="CA2" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1333,8 +1351,14 @@
       <c r="BY3" s="2">
         <v>14</v>
       </c>
+      <c r="BZ3" s="2">
+        <v>16</v>
+      </c>
+      <c r="CA3" s="2">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1566,8 +1590,14 @@
       <c r="BY4" s="2">
         <v>11</v>
       </c>
+      <c r="BZ4" s="2">
+        <v>11</v>
+      </c>
+      <c r="CA4" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1799,8 +1829,14 @@
       <c r="BY5" s="2">
         <v>11</v>
       </c>
+      <c r="BZ5" s="2">
+        <v>13</v>
+      </c>
+      <c r="CA5" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2032,8 +2068,14 @@
       <c r="BY6" s="2">
         <v>8</v>
       </c>
+      <c r="BZ6" s="2">
+        <v>8</v>
+      </c>
+      <c r="CA6" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2265,8 +2307,14 @@
       <c r="BY7" s="2">
         <v>13</v>
       </c>
+      <c r="BZ7" s="2">
+        <v>15</v>
+      </c>
+      <c r="CA7" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="8" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2498,8 +2546,14 @@
       <c r="BY8" s="2">
         <v>15</v>
       </c>
+      <c r="BZ8" s="2">
+        <v>14</v>
+      </c>
+      <c r="CA8" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="9" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2731,8 +2785,14 @@
       <c r="BY9" s="2">
         <v>15</v>
       </c>
+      <c r="BZ9" s="2">
+        <v>16</v>
+      </c>
+      <c r="CA9" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="10" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2964,8 +3024,14 @@
       <c r="BY10" s="2">
         <v>13</v>
       </c>
+      <c r="BZ10" s="2">
+        <v>23</v>
+      </c>
+      <c r="CA10" s="2">
+        <v>31</v>
+      </c>
     </row>
-    <row r="11" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3196,6 +3262,12 @@
       </c>
       <c r="BY11" s="2">
         <v>8</v>
+      </c>
+      <c r="BZ11" s="2">
+        <v>8</v>
+      </c>
+      <c r="CA11" s="2">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1106" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78086400-2E02-4A22-8CD2-03B25FA8E135}"/>
+  <xr:revisionPtr revIDLastSave="1120" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C21334E-B417-4A6F-BB0A-6BD749B8A0AA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Lay's</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>28-sep</t>
+  </si>
+  <si>
+    <t>29-sep</t>
   </si>
 </sst>
 </file>
@@ -626,10 +629,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CA11"/>
+  <dimension ref="A1:CB11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BZ12" sqref="BZ12"/>
+      <selection activeCell="CB12" sqref="CB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +644,7 @@
     <col min="10" max="71" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -879,8 +882,11 @@
       <c r="CA1" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="CB1" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1118,8 +1124,11 @@
       <c r="CA2" s="2">
         <v>12</v>
       </c>
+      <c r="CB2" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1357,8 +1366,11 @@
       <c r="CA3" s="2">
         <v>18</v>
       </c>
+      <c r="CB3" s="2">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1596,8 +1608,11 @@
       <c r="CA4" s="2">
         <v>11</v>
       </c>
+      <c r="CB4" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1835,8 +1850,11 @@
       <c r="CA5" s="2">
         <v>14</v>
       </c>
+      <c r="CB5" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2074,8 +2092,11 @@
       <c r="CA6" s="2">
         <v>8</v>
       </c>
+      <c r="CB6" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2313,8 +2334,11 @@
       <c r="CA7" s="2">
         <v>16</v>
       </c>
+      <c r="CB7" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2552,8 +2576,11 @@
       <c r="CA8" s="2">
         <v>13</v>
       </c>
+      <c r="CB8" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2791,8 +2818,11 @@
       <c r="CA9" s="2">
         <v>15</v>
       </c>
+      <c r="CB9" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3030,8 +3060,11 @@
       <c r="CA10" s="2">
         <v>31</v>
       </c>
+      <c r="CB10" s="2">
+        <v>30</v>
+      </c>
     </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3268,6 +3301,9 @@
       </c>
       <c r="CA11" s="2">
         <v>7</v>
+      </c>
+      <c r="CB11" s="2">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1120" documentId="14_{2473B5F6-30C6-4390-A609-48D56369829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C21334E-B417-4A6F-BB0A-6BD749B8A0AA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D83427C-CFAD-4905-B1C0-5A13C23E8FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Lay's</t>
   </si>
@@ -289,21 +289,6 @@
   </si>
   <si>
     <t>22-sep</t>
-  </si>
-  <si>
-    <t>25-sep</t>
-  </si>
-  <si>
-    <t>26-sep</t>
-  </si>
-  <si>
-    <t>27-sep</t>
-  </si>
-  <si>
-    <t>28-sep</t>
-  </si>
-  <si>
-    <t>29-sep</t>
   </si>
 </sst>
 </file>
@@ -339,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -348,6 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,22 +615,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CB11"/>
+  <dimension ref="A1:BX11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CB12" sqref="CB12"/>
+      <selection activeCell="BX13" sqref="BX13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="13" hidden="1" customWidth="1"/>
     <col min="3" max="8" width="0" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" hidden="1" customWidth="1"/>
-    <col min="10" max="71" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="63" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -870,23 +856,11 @@
       <c r="BW1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="BX1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>89</v>
+      <c r="BX1" s="4">
+        <v>45224</v>
       </c>
     </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1113,22 +1087,10 @@
         <v>12</v>
       </c>
       <c r="BX2" s="2">
-        <v>11</v>
-      </c>
-      <c r="BY2" s="2">
-        <v>10</v>
-      </c>
-      <c r="BZ2" s="2">
-        <v>10</v>
-      </c>
-      <c r="CA2" s="2">
-        <v>12</v>
-      </c>
-      <c r="CB2" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1355,22 +1317,10 @@
         <v>13</v>
       </c>
       <c r="BX3" s="2">
-        <v>15</v>
-      </c>
-      <c r="BY3" s="2">
-        <v>14</v>
-      </c>
-      <c r="BZ3" s="2">
-        <v>16</v>
-      </c>
-      <c r="CA3" s="2">
-        <v>18</v>
-      </c>
-      <c r="CB3" s="2">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1597,22 +1547,10 @@
         <v>12</v>
       </c>
       <c r="BX4" s="2">
-        <v>11</v>
-      </c>
-      <c r="BY4" s="2">
-        <v>11</v>
-      </c>
-      <c r="BZ4" s="2">
-        <v>11</v>
-      </c>
-      <c r="CA4" s="2">
-        <v>11</v>
-      </c>
-      <c r="CB4" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1839,22 +1777,10 @@
         <v>11</v>
       </c>
       <c r="BX5" s="2">
-        <v>10</v>
-      </c>
-      <c r="BY5" s="2">
-        <v>11</v>
-      </c>
-      <c r="BZ5" s="2">
-        <v>13</v>
-      </c>
-      <c r="CA5" s="2">
-        <v>14</v>
-      </c>
-      <c r="CB5" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2081,22 +2007,10 @@
         <v>8</v>
       </c>
       <c r="BX6" s="2">
-        <v>9</v>
-      </c>
-      <c r="BY6" s="2">
-        <v>8</v>
-      </c>
-      <c r="BZ6" s="2">
-        <v>8</v>
-      </c>
-      <c r="CA6" s="2">
-        <v>8</v>
-      </c>
-      <c r="CB6" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2323,22 +2237,10 @@
         <v>14</v>
       </c>
       <c r="BX7" s="2">
-        <v>13</v>
-      </c>
-      <c r="BY7" s="2">
-        <v>13</v>
-      </c>
-      <c r="BZ7" s="2">
-        <v>15</v>
-      </c>
-      <c r="CA7" s="2">
-        <v>16</v>
-      </c>
-      <c r="CB7" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2565,22 +2467,10 @@
         <v>19</v>
       </c>
       <c r="BX8" s="2">
-        <v>16</v>
-      </c>
-      <c r="BY8" s="2">
-        <v>15</v>
-      </c>
-      <c r="BZ8" s="2">
-        <v>14</v>
-      </c>
-      <c r="CA8" s="2">
-        <v>13</v>
-      </c>
-      <c r="CB8" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2807,22 +2697,10 @@
         <v>14</v>
       </c>
       <c r="BX9" s="2">
-        <v>15</v>
-      </c>
-      <c r="BY9" s="2">
-        <v>15</v>
-      </c>
-      <c r="BZ9" s="2">
-        <v>16</v>
-      </c>
-      <c r="CA9" s="2">
-        <v>15</v>
-      </c>
-      <c r="CB9" s="2">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3049,22 +2927,10 @@
         <v>15</v>
       </c>
       <c r="BX10" s="2">
-        <v>15</v>
-      </c>
-      <c r="BY10" s="2">
-        <v>13</v>
-      </c>
-      <c r="BZ10" s="2">
-        <v>23</v>
-      </c>
-      <c r="CA10" s="2">
-        <v>31</v>
-      </c>
-      <c r="CB10" s="2">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3291,19 +3157,7 @@
         <v>3</v>
       </c>
       <c r="BX11" s="2">
-        <v>8</v>
-      </c>
-      <c r="BY11" s="2">
-        <v>8</v>
-      </c>
-      <c r="BZ11" s="2">
-        <v>8</v>
-      </c>
-      <c r="CA11" s="2">
-        <v>7</v>
-      </c>
-      <c r="CB11" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D83427C-CFAD-4905-B1C0-5A13C23E8FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56299D39-A21B-4FD8-9BE2-01F8F4B56CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Lay's</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>22-sep</t>
+  </si>
+  <si>
+    <t>25-oct</t>
   </si>
 </sst>
 </file>
@@ -324,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -333,7 +336,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,7 +620,7 @@
   <dimension ref="A1:BX11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BX13" sqref="BX13"/>
+      <selection activeCell="BX2" sqref="BX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,8 +858,8 @@
       <c r="BW1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="BX1" s="4">
-        <v>45224</v>
+      <c r="BX1" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:76" x14ac:dyDescent="0.25">

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56299D39-A21B-4FD8-9BE2-01F8F4B56CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEA5B17-76B5-432A-ACC7-207077993B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Lay's</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>25-oct</t>
+  </si>
+  <si>
+    <t>26-oct</t>
   </si>
 </sst>
 </file>
@@ -617,10 +620,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BX11"/>
+  <dimension ref="A1:BY11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BX2" sqref="BX2"/>
+      <selection activeCell="BY12" sqref="BY12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +635,7 @@
     <col min="10" max="63" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -861,8 +864,11 @@
       <c r="BX1" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="BY1" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1091,8 +1097,11 @@
       <c r="BX2" s="2">
         <v>6</v>
       </c>
+      <c r="BY2" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1321,8 +1330,11 @@
       <c r="BX3" s="2">
         <v>8</v>
       </c>
+      <c r="BY3" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1551,8 +1563,11 @@
       <c r="BX4" s="2">
         <v>7</v>
       </c>
+      <c r="BY4" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1781,8 +1796,11 @@
       <c r="BX5" s="2">
         <v>7</v>
       </c>
+      <c r="BY5" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2011,8 +2029,11 @@
       <c r="BX6" s="2">
         <v>7</v>
       </c>
+      <c r="BY6" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2241,8 +2262,11 @@
       <c r="BX7" s="2">
         <v>7</v>
       </c>
+      <c r="BY7" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2471,8 +2495,11 @@
       <c r="BX8" s="2">
         <v>15</v>
       </c>
+      <c r="BY8" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="9" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2701,8 +2728,11 @@
       <c r="BX9" s="2">
         <v>7</v>
       </c>
+      <c r="BY9" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2931,8 +2961,11 @@
       <c r="BX10" s="2">
         <v>9</v>
       </c>
+      <c r="BY10" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="11" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3160,6 +3193,9 @@
       </c>
       <c r="BX11" s="2">
         <v>2</v>
+      </c>
+      <c r="BY11" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEA5B17-76B5-432A-ACC7-207077993B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2871130F-A7E3-4184-996A-55C7F13D711B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Lay's</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>26-oct</t>
+  </si>
+  <si>
+    <t>27-oct</t>
   </si>
 </sst>
 </file>
@@ -620,10 +623,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BY11"/>
+  <dimension ref="A1:BZ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BY12" sqref="BY12"/>
+      <selection activeCell="BZ12" sqref="BZ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,7 +638,7 @@
     <col min="10" max="63" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -867,8 +870,11 @@
       <c r="BY1" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="BZ1" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1100,8 +1106,11 @@
       <c r="BY2" s="2">
         <v>6</v>
       </c>
+      <c r="BZ2" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1333,8 +1342,11 @@
       <c r="BY3" s="2">
         <v>8</v>
       </c>
+      <c r="BZ3" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1566,8 +1578,11 @@
       <c r="BY4" s="2">
         <v>7</v>
       </c>
+      <c r="BZ4" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1799,8 +1814,11 @@
       <c r="BY5" s="2">
         <v>8</v>
       </c>
+      <c r="BZ5" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2032,8 +2050,11 @@
       <c r="BY6" s="2">
         <v>5</v>
       </c>
+      <c r="BZ6" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="7" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2265,8 +2286,11 @@
       <c r="BY7" s="2">
         <v>6</v>
       </c>
+      <c r="BZ7" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2498,8 +2522,11 @@
       <c r="BY8" s="2">
         <v>14</v>
       </c>
+      <c r="BZ8" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="9" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2731,8 +2758,11 @@
       <c r="BY9" s="2">
         <v>6</v>
       </c>
+      <c r="BZ9" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2964,8 +2994,11 @@
       <c r="BY10" s="2">
         <v>10</v>
       </c>
+      <c r="BZ10" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3196,6 +3229,9 @@
       </c>
       <c r="BY11" s="2">
         <v>1</v>
+      </c>
+      <c r="BZ11" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2871130F-A7E3-4184-996A-55C7F13D711B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBB9DB6-4BA9-4D58-BE71-3A1B9E613296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>Lay's</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>27-oct</t>
+  </si>
+  <si>
+    <t>30-oct</t>
   </si>
 </sst>
 </file>
@@ -623,10 +626,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BZ11"/>
+  <dimension ref="A1:CA11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BZ12" sqref="BZ12"/>
+      <selection activeCell="CA12" sqref="CA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,10 +638,10 @@
     <col min="2" max="2" width="13" hidden="1" customWidth="1"/>
     <col min="3" max="8" width="0" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" hidden="1" customWidth="1"/>
-    <col min="10" max="63" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="71" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -873,8 +876,11 @@
       <c r="BZ1" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="CA1" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1109,8 +1115,11 @@
       <c r="BZ2" s="2">
         <v>7</v>
       </c>
+      <c r="CA2" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1345,8 +1354,11 @@
       <c r="BZ3" s="2">
         <v>10</v>
       </c>
+      <c r="CA3" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1581,8 +1593,11 @@
       <c r="BZ4" s="2">
         <v>9</v>
       </c>
+      <c r="CA4" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1817,8 +1832,11 @@
       <c r="BZ5" s="2">
         <v>6</v>
       </c>
+      <c r="CA5" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2053,8 +2071,11 @@
       <c r="BZ6" s="2">
         <v>6</v>
       </c>
+      <c r="CA6" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2289,8 +2310,11 @@
       <c r="BZ7" s="2">
         <v>5</v>
       </c>
+      <c r="CA7" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2525,8 +2549,11 @@
       <c r="BZ8" s="2">
         <v>15</v>
       </c>
+      <c r="CA8" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2761,8 +2788,11 @@
       <c r="BZ9" s="2">
         <v>7</v>
       </c>
+      <c r="CA9" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2997,8 +3027,11 @@
       <c r="BZ10" s="2">
         <v>9</v>
       </c>
+      <c r="CA10" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3232,6 +3265,9 @@
       </c>
       <c r="BZ11" s="2">
         <v>2</v>
+      </c>
+      <c r="CA11" s="2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBB9DB6-4BA9-4D58-BE71-3A1B9E613296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B4E705-E39B-49D7-A1A9-BC912048EF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Lay's</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>30-oct</t>
+  </si>
+  <si>
+    <t>31-oct</t>
   </si>
 </sst>
 </file>
@@ -626,10 +629,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CA11"/>
+  <dimension ref="A1:CB11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CA12" sqref="CA12"/>
+      <selection activeCell="CB11" sqref="CB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +644,7 @@
     <col min="10" max="71" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -879,8 +882,11 @@
       <c r="CA1" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="CB1" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1118,8 +1124,11 @@
       <c r="CA2" s="2">
         <v>6</v>
       </c>
+      <c r="CB2" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1357,8 +1366,11 @@
       <c r="CA3" s="2">
         <v>9</v>
       </c>
+      <c r="CB3" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1596,8 +1608,11 @@
       <c r="CA4" s="2">
         <v>9</v>
       </c>
+      <c r="CB4" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1835,8 +1850,11 @@
       <c r="CA5" s="2">
         <v>4</v>
       </c>
+      <c r="CB5" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2074,8 +2092,11 @@
       <c r="CA6" s="2">
         <v>8</v>
       </c>
+      <c r="CB6" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2313,8 +2334,11 @@
       <c r="CA7" s="2">
         <v>3</v>
       </c>
+      <c r="CB7" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2552,8 +2576,11 @@
       <c r="CA8" s="2">
         <v>14</v>
       </c>
+      <c r="CB8" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2791,8 +2818,11 @@
       <c r="CA9" s="2">
         <v>9</v>
       </c>
+      <c r="CB9" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3030,8 +3060,11 @@
       <c r="CA10" s="2">
         <v>7</v>
       </c>
+      <c r="CB10" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3267,6 +3300,9 @@
         <v>2</v>
       </c>
       <c r="CA11" s="2">
+        <v>6</v>
+      </c>
+      <c r="CB11" s="2">
         <v>6</v>
       </c>
     </row>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B4E705-E39B-49D7-A1A9-BC912048EF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEAFBC3-8947-414C-AABD-73E0599AE265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Lay's</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>31-oct</t>
+  </si>
+  <si>
+    <t>1-nov</t>
   </si>
 </sst>
 </file>
@@ -629,10 +632,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CB11"/>
+  <dimension ref="A1:CC11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CB11" sqref="CB11"/>
+      <selection activeCell="CC10" sqref="CC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +647,7 @@
     <col min="10" max="71" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:81" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -885,8 +888,11 @@
       <c r="CB1" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="CC1" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1127,8 +1133,11 @@
       <c r="CB2" s="2">
         <v>5</v>
       </c>
+      <c r="CC2" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1369,8 +1378,11 @@
       <c r="CB3" s="2">
         <v>9</v>
       </c>
+      <c r="CC3" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1611,8 +1623,11 @@
       <c r="CB4" s="2">
         <v>9</v>
       </c>
+      <c r="CC4" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1853,8 +1868,11 @@
       <c r="CB5" s="2">
         <v>4</v>
       </c>
+      <c r="CC5" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2095,8 +2113,11 @@
       <c r="CB6" s="2">
         <v>10</v>
       </c>
+      <c r="CC6" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2337,8 +2358,11 @@
       <c r="CB7" s="2">
         <v>4</v>
       </c>
+      <c r="CC7" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2579,8 +2603,11 @@
       <c r="CB8" s="2">
         <v>13</v>
       </c>
+      <c r="CC8" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="9" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2821,8 +2848,11 @@
       <c r="CB9" s="2">
         <v>8</v>
       </c>
+      <c r="CC9" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="10" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3063,8 +3093,11 @@
       <c r="CB10" s="2">
         <v>6</v>
       </c>
+      <c r="CC10" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="11" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3304,6 +3337,9 @@
       </c>
       <c r="CB11" s="2">
         <v>6</v>
+      </c>
+      <c r="CC11" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEAFBC3-8947-414C-AABD-73E0599AE265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157E6DF2-D4B8-472C-A890-30A541C75AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Lay's</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>1-nov</t>
+  </si>
+  <si>
+    <t>2-nov</t>
   </si>
 </sst>
 </file>
@@ -632,10 +635,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CC11"/>
+  <dimension ref="A1:CD11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CC10" sqref="CC10"/>
+      <selection activeCell="CD12" sqref="CD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +650,7 @@
     <col min="10" max="71" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:82" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -891,8 +894,11 @@
       <c r="CC1" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="CD1" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1136,8 +1142,11 @@
       <c r="CC2" s="2">
         <v>7</v>
       </c>
+      <c r="CD2" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1381,8 +1390,11 @@
       <c r="CC3" s="2">
         <v>10</v>
       </c>
+      <c r="CD3" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1626,8 +1638,11 @@
       <c r="CC4" s="2">
         <v>8</v>
       </c>
+      <c r="CD4" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1871,8 +1886,11 @@
       <c r="CC5" s="2">
         <v>3</v>
       </c>
+      <c r="CD5" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2116,8 +2134,11 @@
       <c r="CC6" s="2">
         <v>11</v>
       </c>
+      <c r="CD6" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2361,8 +2382,11 @@
       <c r="CC7" s="2">
         <v>5</v>
       </c>
+      <c r="CD7" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2606,8 +2630,11 @@
       <c r="CC8" s="2">
         <v>13</v>
       </c>
+      <c r="CD8" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2851,8 +2878,11 @@
       <c r="CC9" s="2">
         <v>11</v>
       </c>
+      <c r="CD9" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="10" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3096,8 +3126,11 @@
       <c r="CC10" s="2">
         <v>6</v>
       </c>
+      <c r="CD10" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="11" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3339,6 +3372,9 @@
         <v>6</v>
       </c>
       <c r="CC11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD11" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157E6DF2-D4B8-472C-A890-30A541C75AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3C810B-4E4A-4874-8795-769B50146A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Lay's</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>2-nov</t>
+  </si>
+  <si>
+    <t>3-nov</t>
   </si>
 </sst>
 </file>
@@ -635,10 +638,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CD11"/>
+  <dimension ref="A1:CF11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CD12" sqref="CD12"/>
+      <selection activeCell="CE1" sqref="CE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,7 +653,7 @@
     <col min="10" max="71" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:84" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,8 +900,11 @@
       <c r="CD1" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="CE1" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="2" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1145,8 +1151,11 @@
       <c r="CD2" s="2">
         <v>10</v>
       </c>
+      <c r="CE2" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1393,8 +1402,11 @@
       <c r="CD3" s="2">
         <v>10</v>
       </c>
+      <c r="CE3" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1641,8 +1653,11 @@
       <c r="CD4" s="2">
         <v>9</v>
       </c>
+      <c r="CE4" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1889,8 +1904,11 @@
       <c r="CD5" s="2">
         <v>5</v>
       </c>
+      <c r="CE5" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2137,8 +2155,12 @@
       <c r="CD6" s="2">
         <v>10</v>
       </c>
+      <c r="CE6" s="2">
+        <v>9</v>
+      </c>
+      <c r="CF6" s="2"/>
     </row>
-    <row r="7" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2385,8 +2407,11 @@
       <c r="CD7" s="2">
         <v>6</v>
       </c>
+      <c r="CE7" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="8" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2633,8 +2658,11 @@
       <c r="CD8" s="2">
         <v>12</v>
       </c>
+      <c r="CE8" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2881,8 +2909,11 @@
       <c r="CD9" s="2">
         <v>14</v>
       </c>
+      <c r="CE9" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3129,8 +3160,11 @@
       <c r="CD10" s="2">
         <v>5</v>
       </c>
+      <c r="CE10" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3375,6 +3409,9 @@
         <v>0</v>
       </c>
       <c r="CD11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE11" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3C810B-4E4A-4874-8795-769B50146A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2EA153-6E95-4CCB-B535-81D536735958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Lay's</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>3-nov</t>
+  </si>
+  <si>
+    <t>6-nov</t>
   </si>
 </sst>
 </file>
@@ -641,7 +644,7 @@
   <dimension ref="A1:CF11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CE1" sqref="CE1"/>
+      <selection activeCell="CF12" sqref="CF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,6 +906,9 @@
       <c r="CE1" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="CF1" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="2" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1154,6 +1160,9 @@
       <c r="CE2" s="2">
         <v>6</v>
       </c>
+      <c r="CF2" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1405,6 +1414,9 @@
       <c r="CE3" s="2">
         <v>10</v>
       </c>
+      <c r="CF3" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1656,6 +1668,9 @@
       <c r="CE4" s="2">
         <v>8</v>
       </c>
+      <c r="CF4" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1907,6 +1922,9 @@
       <c r="CE5" s="2">
         <v>7</v>
       </c>
+      <c r="CF5" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2158,7 +2176,9 @@
       <c r="CE6" s="2">
         <v>9</v>
       </c>
-      <c r="CF6" s="2"/>
+      <c r="CF6" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2410,6 +2430,9 @@
       <c r="CE7" s="2">
         <v>8</v>
       </c>
+      <c r="CF7" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2661,6 +2684,9 @@
       <c r="CE8" s="2">
         <v>11</v>
       </c>
+      <c r="CF8" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2912,6 +2938,9 @@
       <c r="CE9" s="2">
         <v>12</v>
       </c>
+      <c r="CF9" s="2">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3163,6 +3192,9 @@
       <c r="CE10" s="2">
         <v>7</v>
       </c>
+      <c r="CF10" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3412,6 +3444,9 @@
         <v>0</v>
       </c>
       <c r="CE11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF11" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2EA153-6E95-4CCB-B535-81D536735958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FBC396-344C-4F1D-9B00-13630F6DE4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Lay's</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>6-nov</t>
+  </si>
+  <si>
+    <t>7-nov</t>
   </si>
 </sst>
 </file>
@@ -641,10 +644,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CF11"/>
+  <dimension ref="A1:CG11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CF12" sqref="CF12"/>
+      <selection activeCell="CG8" sqref="CG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,7 +659,7 @@
     <col min="10" max="71" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -909,8 +912,11 @@
       <c r="CF1" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="CG1" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1163,8 +1169,11 @@
       <c r="CF2" s="2">
         <v>7</v>
       </c>
+      <c r="CG2" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1417,8 +1426,11 @@
       <c r="CF3" s="2">
         <v>10</v>
       </c>
+      <c r="CG3" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1671,8 +1683,11 @@
       <c r="CF4" s="2">
         <v>7</v>
       </c>
+      <c r="CG4" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1925,8 +1940,11 @@
       <c r="CF5" s="2">
         <v>8</v>
       </c>
+      <c r="CG5" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2179,8 +2197,11 @@
       <c r="CF6" s="2">
         <v>8</v>
       </c>
+      <c r="CG6" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2433,8 +2454,11 @@
       <c r="CF7" s="2">
         <v>10</v>
       </c>
+      <c r="CG7" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2687,8 +2711,11 @@
       <c r="CF8" s="2">
         <v>10</v>
       </c>
+      <c r="CG8" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2941,8 +2968,11 @@
       <c r="CF9" s="2">
         <v>11</v>
       </c>
+      <c r="CG9" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3195,8 +3225,11 @@
       <c r="CF10" s="2">
         <v>16</v>
       </c>
+      <c r="CG10" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3447,6 +3480,9 @@
         <v>0</v>
       </c>
       <c r="CF11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG11" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FBC396-344C-4F1D-9B00-13630F6DE4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A3F1C8-91BB-41EA-A6B7-E42F51E09C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>Lay's</t>
   </si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>7-nov</t>
+  </si>
+  <si>
+    <t>8-nov</t>
   </si>
 </sst>
 </file>
@@ -644,10 +647,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CG11"/>
+  <dimension ref="A1:CH11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CG8" sqref="CG8"/>
+      <selection activeCell="CM19" sqref="CM19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,10 +659,10 @@
     <col min="2" max="2" width="13" hidden="1" customWidth="1"/>
     <col min="3" max="8" width="0" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" hidden="1" customWidth="1"/>
-    <col min="10" max="71" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="82" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -915,8 +918,11 @@
       <c r="CG1" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="CH1" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1172,8 +1178,11 @@
       <c r="CG2" s="2">
         <v>7</v>
       </c>
+      <c r="CH2" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1429,8 +1438,11 @@
       <c r="CG3" s="2">
         <v>10</v>
       </c>
+      <c r="CH3" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1686,8 +1698,11 @@
       <c r="CG4" s="2">
         <v>7</v>
       </c>
+      <c r="CH4" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1943,8 +1958,11 @@
       <c r="CG5" s="2">
         <v>9</v>
       </c>
+      <c r="CH5" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2200,8 +2218,11 @@
       <c r="CG6" s="2">
         <v>9</v>
       </c>
+      <c r="CH6" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2457,8 +2478,11 @@
       <c r="CG7" s="2">
         <v>9</v>
       </c>
+      <c r="CH7" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="8" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2714,8 +2738,11 @@
       <c r="CG8" s="2">
         <v>10</v>
       </c>
+      <c r="CH8" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2971,8 +2998,11 @@
       <c r="CG9" s="2">
         <v>11</v>
       </c>
+      <c r="CH9" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="10" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3228,8 +3258,11 @@
       <c r="CG10" s="2">
         <v>8</v>
       </c>
+      <c r="CH10" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3483,6 +3516,9 @@
         <v>0</v>
       </c>
       <c r="CG11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH11" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A3F1C8-91BB-41EA-A6B7-E42F51E09C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7CA5B9-7EA3-4896-87B1-3601620780E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Lay's</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>8-nov</t>
+  </si>
+  <si>
+    <t>9-nov</t>
   </si>
 </sst>
 </file>
@@ -647,10 +650,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CH11"/>
+  <dimension ref="A1:CI11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CM19" sqref="CM19"/>
+      <selection activeCell="CI2" sqref="CI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,7 +665,7 @@
     <col min="10" max="82" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -921,8 +924,11 @@
       <c r="CH1" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="CI1" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="2" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1181,8 +1187,11 @@
       <c r="CH2" s="2">
         <v>7</v>
       </c>
+      <c r="CI2" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1441,8 +1450,11 @@
       <c r="CH3" s="2">
         <v>11</v>
       </c>
+      <c r="CI3" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1701,8 +1713,11 @@
       <c r="CH4" s="2">
         <v>7</v>
       </c>
+      <c r="CI4" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1961,8 +1976,11 @@
       <c r="CH5" s="2">
         <v>11</v>
       </c>
+      <c r="CI5" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2221,8 +2239,11 @@
       <c r="CH6" s="2">
         <v>7</v>
       </c>
+      <c r="CI6" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="7" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2481,8 +2502,11 @@
       <c r="CH7" s="2">
         <v>8</v>
       </c>
+      <c r="CI7" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2741,8 +2765,11 @@
       <c r="CH8" s="2">
         <v>10</v>
       </c>
+      <c r="CI8" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="9" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3001,8 +3028,11 @@
       <c r="CH9" s="2">
         <v>11</v>
       </c>
+      <c r="CI9" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="10" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3261,8 +3291,11 @@
       <c r="CH10" s="2">
         <v>8</v>
       </c>
+      <c r="CI10" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3519,6 +3552,9 @@
         <v>0</v>
       </c>
       <c r="CH11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CI11" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7CA5B9-7EA3-4896-87B1-3601620780E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E10F653-C06D-4A8F-9FCA-6A2982C73432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>Lay's</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>9-nov</t>
+  </si>
+  <si>
+    <t>10-nov</t>
   </si>
 </sst>
 </file>
@@ -650,10 +653,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CI11"/>
+  <dimension ref="A1:CJ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CI2" sqref="CI2"/>
+      <selection activeCell="CJ10" sqref="CJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +668,7 @@
     <col min="10" max="82" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -927,8 +930,11 @@
       <c r="CI1" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="CJ1" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="2" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1190,8 +1196,11 @@
       <c r="CI2" s="2">
         <v>7</v>
       </c>
+      <c r="CJ2" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1453,8 +1462,11 @@
       <c r="CI3" s="2">
         <v>11</v>
       </c>
+      <c r="CJ3" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1716,8 +1728,11 @@
       <c r="CI4" s="2">
         <v>7</v>
       </c>
+      <c r="CJ4" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1979,8 +1994,11 @@
       <c r="CI5" s="2">
         <v>11</v>
       </c>
+      <c r="CJ5" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2242,8 +2260,11 @@
       <c r="CI6" s="2">
         <v>6</v>
       </c>
+      <c r="CJ6" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2505,8 +2526,11 @@
       <c r="CI7" s="2">
         <v>7</v>
       </c>
+      <c r="CJ7" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2768,8 +2792,11 @@
       <c r="CI8" s="2">
         <v>13</v>
       </c>
+      <c r="CJ8" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="9" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3031,8 +3058,11 @@
       <c r="CI9" s="2">
         <v>13</v>
       </c>
+      <c r="CJ9" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="10" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3294,8 +3324,11 @@
       <c r="CI10" s="2">
         <v>8</v>
       </c>
+      <c r="CJ10" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3555,6 +3588,9 @@
         <v>0</v>
       </c>
       <c r="CI11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ11" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E10F653-C06D-4A8F-9FCA-6A2982C73432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFAC850-8E23-4673-9E00-2148EEB28E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Lay's</t>
   </si>
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t>10-nov</t>
+  </si>
+  <si>
+    <t>13-nov</t>
   </si>
 </sst>
 </file>
@@ -653,10 +656,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CJ11"/>
+  <dimension ref="A1:CK11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CJ10" sqref="CJ10"/>
+      <selection activeCell="CK11" sqref="CK11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +671,7 @@
     <col min="10" max="82" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -933,8 +936,11 @@
       <c r="CJ1" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="CK1" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1199,8 +1205,11 @@
       <c r="CJ2" s="2">
         <v>8</v>
       </c>
+      <c r="CK2" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1465,8 +1474,11 @@
       <c r="CJ3" s="2">
         <v>12</v>
       </c>
+      <c r="CK3" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1731,8 +1743,11 @@
       <c r="CJ4" s="2">
         <v>7</v>
       </c>
+      <c r="CK4" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1997,8 +2012,11 @@
       <c r="CJ5" s="2">
         <v>11</v>
       </c>
+      <c r="CK5" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2263,8 +2281,11 @@
       <c r="CJ6" s="2">
         <v>7</v>
       </c>
+      <c r="CK6" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="7" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2529,8 +2550,11 @@
       <c r="CJ7" s="2">
         <v>6</v>
       </c>
+      <c r="CK7" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2795,8 +2819,11 @@
       <c r="CJ8" s="2">
         <v>15</v>
       </c>
+      <c r="CK8" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="9" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3061,8 +3088,11 @@
       <c r="CJ9" s="2">
         <v>15</v>
       </c>
+      <c r="CK9" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3327,8 +3357,11 @@
       <c r="CJ10" s="2">
         <v>8</v>
       </c>
+      <c r="CK10" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="11" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3591,6 +3624,9 @@
         <v>0</v>
       </c>
       <c r="CJ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CK11" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFAC850-8E23-4673-9E00-2148EEB28E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C167AC-864F-4DD0-926D-BD2B4AF0B40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>Lay's</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>13-nov</t>
+  </si>
+  <si>
+    <t>14-nov</t>
   </si>
 </sst>
 </file>
@@ -656,10 +659,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CK11"/>
+  <dimension ref="A1:CL11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CK11" sqref="CK11"/>
+      <selection activeCell="CL11" sqref="CL11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,7 +674,7 @@
     <col min="10" max="82" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -939,8 +942,11 @@
       <c r="CK1" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="CL1" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1208,8 +1214,11 @@
       <c r="CK2" s="2">
         <v>10</v>
       </c>
+      <c r="CL2" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1477,8 +1486,11 @@
       <c r="CK3" s="2">
         <v>10</v>
       </c>
+      <c r="CL3" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1746,8 +1758,11 @@
       <c r="CK4" s="2">
         <v>8</v>
       </c>
+      <c r="CL4" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2015,8 +2030,11 @@
       <c r="CK5" s="2">
         <v>9</v>
       </c>
+      <c r="CL5" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2284,8 +2302,11 @@
       <c r="CK6" s="2">
         <v>9</v>
       </c>
+      <c r="CL6" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2553,8 +2574,11 @@
       <c r="CK7" s="2">
         <v>5</v>
       </c>
+      <c r="CL7" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2822,8 +2846,11 @@
       <c r="CK8" s="2">
         <v>15</v>
       </c>
+      <c r="CL8" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3091,8 +3118,11 @@
       <c r="CK9" s="2">
         <v>12</v>
       </c>
+      <c r="CL9" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3360,8 +3390,11 @@
       <c r="CK10" s="2">
         <v>14</v>
       </c>
+      <c r="CL10" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="11" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3627,6 +3660,9 @@
         <v>0</v>
       </c>
       <c r="CK11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CL11" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C167AC-864F-4DD0-926D-BD2B4AF0B40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E7874E-BF09-4EE1-9CAD-1F273787D8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Lay's</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>14-nov</t>
+  </si>
+  <si>
+    <t>15-nov</t>
   </si>
 </sst>
 </file>
@@ -659,10 +662,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CL11"/>
+  <dimension ref="A1:CM11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CL11" sqref="CL11"/>
+      <selection activeCell="CM11" sqref="CM11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,7 +677,7 @@
     <col min="10" max="82" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +948,11 @@
       <c r="CL1" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="CM1" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="2" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1217,8 +1223,11 @@
       <c r="CL2" s="2">
         <v>9</v>
       </c>
+      <c r="CM2" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1489,8 +1498,11 @@
       <c r="CL3" s="2">
         <v>10</v>
       </c>
+      <c r="CM3" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1761,8 +1773,11 @@
       <c r="CL4" s="2">
         <v>7</v>
       </c>
+      <c r="CM4" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2033,8 +2048,11 @@
       <c r="CL5" s="2">
         <v>9</v>
       </c>
+      <c r="CM5" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2305,8 +2323,11 @@
       <c r="CL6" s="2">
         <v>11</v>
       </c>
+      <c r="CM6" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2577,8 +2598,11 @@
       <c r="CL7" s="2">
         <v>5</v>
       </c>
+      <c r="CM7" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2849,8 +2873,11 @@
       <c r="CL8" s="2">
         <v>15</v>
       </c>
+      <c r="CM8" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="9" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3121,8 +3148,11 @@
       <c r="CL9" s="2">
         <v>14</v>
       </c>
+      <c r="CM9" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="10" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3393,8 +3423,11 @@
       <c r="CL10" s="2">
         <v>15</v>
       </c>
+      <c r="CM10" s="2">
+        <v>21</v>
+      </c>
     </row>
-    <row r="11" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3663,6 +3696,9 @@
         <v>0</v>
       </c>
       <c r="CL11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CM11" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E7874E-BF09-4EE1-9CAD-1F273787D8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB8E75E-2DFF-4B6C-A79F-19C49FB16A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Lay's</t>
   </si>
@@ -312,21 +312,6 @@
     <t>2-nov</t>
   </si>
   <si>
-    <t>3-nov</t>
-  </si>
-  <si>
-    <t>6-nov</t>
-  </si>
-  <si>
-    <t>7-nov</t>
-  </si>
-  <si>
-    <t>8-nov</t>
-  </si>
-  <si>
-    <t>9-nov</t>
-  </si>
-  <si>
     <t>10-nov</t>
   </si>
   <si>
@@ -337,6 +322,9 @@
   </si>
   <si>
     <t>15-nov</t>
+  </si>
+  <si>
+    <t>16-nov</t>
   </si>
 </sst>
 </file>
@@ -662,10 +650,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CM11"/>
+  <dimension ref="A1:CI11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CM11" sqref="CM11"/>
+      <selection activeCell="CM6" sqref="CM6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +665,7 @@
     <col min="10" max="82" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -939,20 +927,8 @@
       <c r="CI1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="CJ1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>100</v>
-      </c>
     </row>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1200,34 +1176,22 @@
         <v>10</v>
       </c>
       <c r="CE2" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CF2" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="CG2" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CH2" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CI2" s="2">
-        <v>7</v>
-      </c>
-      <c r="CJ2" s="2">
-        <v>8</v>
-      </c>
-      <c r="CK2" s="2">
-        <v>10</v>
-      </c>
-      <c r="CL2" s="2">
-        <v>9</v>
-      </c>
-      <c r="CM2" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1475,7 +1439,7 @@
         <v>10</v>
       </c>
       <c r="CE3" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="CF3" s="2">
         <v>10</v>
@@ -1484,25 +1448,13 @@
         <v>10</v>
       </c>
       <c r="CH3" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CI3" s="2">
-        <v>11</v>
-      </c>
-      <c r="CJ3" s="2">
-        <v>12</v>
-      </c>
-      <c r="CK3" s="2">
-        <v>10</v>
-      </c>
-      <c r="CL3" s="2">
-        <v>10</v>
-      </c>
-      <c r="CM3" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1750,10 +1702,10 @@
         <v>9</v>
       </c>
       <c r="CE4" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CF4" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CG4" s="2">
         <v>7</v>
@@ -1762,22 +1714,10 @@
         <v>7</v>
       </c>
       <c r="CI4" s="2">
-        <v>7</v>
-      </c>
-      <c r="CJ4" s="2">
-        <v>7</v>
-      </c>
-      <c r="CK4" s="2">
-        <v>8</v>
-      </c>
-      <c r="CL4" s="2">
-        <v>7</v>
-      </c>
-      <c r="CM4" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2025,34 +1965,22 @@
         <v>5</v>
       </c>
       <c r="CE5" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="CF5" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CG5" s="2">
         <v>9</v>
       </c>
       <c r="CH5" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="CI5" s="2">
-        <v>11</v>
-      </c>
-      <c r="CJ5" s="2">
-        <v>11</v>
-      </c>
-      <c r="CK5" s="2">
-        <v>9</v>
-      </c>
-      <c r="CL5" s="2">
-        <v>9</v>
-      </c>
-      <c r="CM5" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2300,34 +2228,22 @@
         <v>10</v>
       </c>
       <c r="CE6" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CF6" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CG6" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CH6" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="CI6" s="2">
-        <v>6</v>
-      </c>
-      <c r="CJ6" s="2">
-        <v>7</v>
-      </c>
-      <c r="CK6" s="2">
-        <v>9</v>
-      </c>
-      <c r="CL6" s="2">
-        <v>11</v>
-      </c>
-      <c r="CM6" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2575,34 +2491,22 @@
         <v>6</v>
       </c>
       <c r="CE7" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="CF7" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="CG7" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="CH7" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CI7" s="2">
-        <v>7</v>
-      </c>
-      <c r="CJ7" s="2">
-        <v>6</v>
-      </c>
-      <c r="CK7" s="2">
-        <v>5</v>
-      </c>
-      <c r="CL7" s="2">
-        <v>5</v>
-      </c>
-      <c r="CM7" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2850,34 +2754,22 @@
         <v>12</v>
       </c>
       <c r="CE8" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="CF8" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="CG8" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="CH8" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="CI8" s="2">
         <v>13</v>
       </c>
-      <c r="CJ8" s="2">
-        <v>15</v>
-      </c>
-      <c r="CK8" s="2">
-        <v>15</v>
-      </c>
-      <c r="CL8" s="2">
-        <v>15</v>
-      </c>
-      <c r="CM8" s="2">
-        <v>14</v>
-      </c>
     </row>
-    <row r="9" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3125,34 +3017,22 @@
         <v>14</v>
       </c>
       <c r="CE9" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="CF9" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CG9" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="CH9" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CI9" s="2">
-        <v>13</v>
-      </c>
-      <c r="CJ9" s="2">
-        <v>15</v>
-      </c>
-      <c r="CK9" s="2">
-        <v>12</v>
-      </c>
-      <c r="CL9" s="2">
-        <v>14</v>
-      </c>
-      <c r="CM9" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3400,34 +3280,22 @@
         <v>5</v>
       </c>
       <c r="CE10" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CF10" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="CG10" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="CH10" s="2">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="CI10" s="2">
-        <v>8</v>
-      </c>
-      <c r="CJ10" s="2">
-        <v>8</v>
-      </c>
-      <c r="CK10" s="2">
-        <v>14</v>
-      </c>
-      <c r="CL10" s="2">
-        <v>15</v>
-      </c>
-      <c r="CM10" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3687,18 +3555,6 @@
         <v>0</v>
       </c>
       <c r="CI11" s="2">
-        <v>0</v>
-      </c>
-      <c r="CJ11" s="2">
-        <v>0</v>
-      </c>
-      <c r="CK11" s="2">
-        <v>0</v>
-      </c>
-      <c r="CL11" s="2">
-        <v>0</v>
-      </c>
-      <c r="CM11" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB8E75E-2DFF-4B6C-A79F-19C49FB16A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E42888A-6596-4F0C-AF6F-4358410BB85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>Lay's</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>16-nov</t>
+  </si>
+  <si>
+    <t>17-nov</t>
   </si>
 </sst>
 </file>
@@ -650,10 +653,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CI11"/>
+  <dimension ref="A1:CJ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CM6" sqref="CM6"/>
+      <selection activeCell="CJ11" sqref="CJ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +668,7 @@
     <col min="10" max="82" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -927,8 +930,11 @@
       <c r="CI1" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="CJ1" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="2" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1190,8 +1196,11 @@
       <c r="CI2" s="2">
         <v>11</v>
       </c>
+      <c r="CJ2" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1453,8 +1462,11 @@
       <c r="CI3" s="2">
         <v>9</v>
       </c>
+      <c r="CJ3" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1716,8 +1728,11 @@
       <c r="CI4" s="2">
         <v>8</v>
       </c>
+      <c r="CJ4" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1979,8 +1994,11 @@
       <c r="CI5" s="2">
         <v>10</v>
       </c>
+      <c r="CJ5" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2242,8 +2260,11 @@
       <c r="CI6" s="2">
         <v>11</v>
       </c>
+      <c r="CJ6" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2505,8 +2526,11 @@
       <c r="CI7" s="2">
         <v>8</v>
       </c>
+      <c r="CJ7" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2768,8 +2792,11 @@
       <c r="CI8" s="2">
         <v>13</v>
       </c>
+      <c r="CJ8" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3031,8 +3058,11 @@
       <c r="CI9" s="2">
         <v>12</v>
       </c>
+      <c r="CJ9" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3294,8 +3324,11 @@
       <c r="CI10" s="2">
         <v>20</v>
       </c>
+      <c r="CJ10" s="2">
+        <v>19</v>
+      </c>
     </row>
-    <row r="11" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3555,6 +3588,9 @@
         <v>0</v>
       </c>
       <c r="CI11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ11" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E42888A-6596-4F0C-AF6F-4358410BB85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1BE883-7222-4199-B76D-92FC25273019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Lay's</t>
   </si>
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t>17-nov</t>
+  </si>
+  <si>
+    <t>21-nov</t>
   </si>
 </sst>
 </file>
@@ -653,10 +656,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CJ11"/>
+  <dimension ref="A1:CK11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CJ11" sqref="CJ11"/>
+      <selection activeCell="CL12" sqref="CL12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +671,7 @@
     <col min="10" max="82" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -933,8 +936,11 @@
       <c r="CJ1" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="CK1" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1199,8 +1205,11 @@
       <c r="CJ2" s="2">
         <v>11</v>
       </c>
+      <c r="CK2" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1465,8 +1474,11 @@
       <c r="CJ3" s="2">
         <v>8</v>
       </c>
+      <c r="CK3" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1731,8 +1743,11 @@
       <c r="CJ4" s="2">
         <v>8</v>
       </c>
+      <c r="CK4" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1997,8 +2012,11 @@
       <c r="CJ5" s="2">
         <v>11</v>
       </c>
+      <c r="CK5" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="6" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2263,8 +2281,11 @@
       <c r="CJ6" s="2">
         <v>10</v>
       </c>
+      <c r="CK6" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2529,8 +2550,11 @@
       <c r="CJ7" s="2">
         <v>10</v>
       </c>
+      <c r="CK7" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="8" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2795,8 +2819,11 @@
       <c r="CJ8" s="2">
         <v>12</v>
       </c>
+      <c r="CK8" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="9" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3061,8 +3088,11 @@
       <c r="CJ9" s="2">
         <v>12</v>
       </c>
+      <c r="CK9" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3327,8 +3357,11 @@
       <c r="CJ10" s="2">
         <v>19</v>
       </c>
+      <c r="CK10" s="2">
+        <v>18</v>
+      </c>
     </row>
-    <row r="11" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3591,6 +3624,9 @@
         <v>0</v>
       </c>
       <c r="CJ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CK11" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1BE883-7222-4199-B76D-92FC25273019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88ECE23D-4414-4D49-80A6-C28D7CD41B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>Lay's</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>21-nov</t>
+  </si>
+  <si>
+    <t>22-nov</t>
   </si>
 </sst>
 </file>
@@ -656,10 +659,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CK11"/>
+  <dimension ref="A1:CL11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CL12" sqref="CL12"/>
+      <selection activeCell="CL11" sqref="CL11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,7 +674,7 @@
     <col min="10" max="82" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -939,8 +942,11 @@
       <c r="CK1" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="CL1" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1208,8 +1214,11 @@
       <c r="CK2" s="2">
         <v>12</v>
       </c>
+      <c r="CL2" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1477,8 +1486,11 @@
       <c r="CK3" s="2">
         <v>8</v>
       </c>
+      <c r="CL3" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1746,8 +1758,11 @@
       <c r="CK4" s="2">
         <v>8</v>
       </c>
+      <c r="CL4" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2015,8 +2030,11 @@
       <c r="CK5" s="2">
         <v>13</v>
       </c>
+      <c r="CL5" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2284,8 +2302,11 @@
       <c r="CK6" s="2">
         <v>8</v>
       </c>
+      <c r="CL6" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="7" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2553,8 +2574,11 @@
       <c r="CK7" s="2">
         <v>12</v>
       </c>
+      <c r="CL7" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2822,8 +2846,11 @@
       <c r="CK8" s="2">
         <v>11</v>
       </c>
+      <c r="CL8" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3091,8 +3118,11 @@
       <c r="CK9" s="2">
         <v>12</v>
       </c>
+      <c r="CL9" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3360,8 +3390,11 @@
       <c r="CK10" s="2">
         <v>18</v>
       </c>
+      <c r="CL10" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="11" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3627,6 +3660,9 @@
         <v>0</v>
       </c>
       <c r="CK11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CL11" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88ECE23D-4414-4D49-80A6-C28D7CD41B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4661FEF5-D46E-4BCA-BC9F-BFB48258AC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Lay's</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>22-nov</t>
+  </si>
+  <si>
+    <t>23-nov</t>
   </si>
 </sst>
 </file>
@@ -659,10 +662,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CL11"/>
+  <dimension ref="A1:CM11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CL11" sqref="CL11"/>
+      <selection activeCell="CM11" sqref="CM11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,7 +677,7 @@
     <col min="10" max="82" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +948,11 @@
       <c r="CL1" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="CM1" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="2" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1217,8 +1223,11 @@
       <c r="CL2" s="2">
         <v>13</v>
       </c>
+      <c r="CM2" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1489,8 +1498,11 @@
       <c r="CL3" s="2">
         <v>8</v>
       </c>
+      <c r="CM3" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1761,8 +1773,11 @@
       <c r="CL4" s="2">
         <v>8</v>
       </c>
+      <c r="CM4" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2033,8 +2048,11 @@
       <c r="CL5" s="2">
         <v>12</v>
       </c>
+      <c r="CM5" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2305,8 +2323,11 @@
       <c r="CL6" s="2">
         <v>9</v>
       </c>
+      <c r="CM6" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2577,8 +2598,11 @@
       <c r="CL7" s="2">
         <v>12</v>
       </c>
+      <c r="CM7" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="8" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2849,8 +2873,11 @@
       <c r="CL8" s="2">
         <v>10</v>
       </c>
+      <c r="CM8" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="9" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3121,8 +3148,11 @@
       <c r="CL9" s="2">
         <v>11</v>
       </c>
+      <c r="CM9" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3393,8 +3423,11 @@
       <c r="CL10" s="2">
         <v>17</v>
       </c>
+      <c r="CM10" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="11" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3663,6 +3696,9 @@
         <v>0</v>
       </c>
       <c r="CL11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CM11" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4661FEF5-D46E-4BCA-BC9F-BFB48258AC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2EDCAC-8A6B-482A-BB33-3A01429DB5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>Lay's</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>23-nov</t>
+  </si>
+  <si>
+    <t>24-nov</t>
   </si>
 </sst>
 </file>
@@ -662,10 +665,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CM11"/>
+  <dimension ref="A1:CN11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CM11" sqref="CM11"/>
+      <selection activeCell="CN2" sqref="CN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +680,7 @@
     <col min="10" max="82" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -951,8 +954,11 @@
       <c r="CM1" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="CN1" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1226,8 +1232,11 @@
       <c r="CM2" s="2">
         <v>13</v>
       </c>
+      <c r="CN2" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1501,8 +1510,11 @@
       <c r="CM3" s="2">
         <v>9</v>
       </c>
+      <c r="CN3" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1776,8 +1788,11 @@
       <c r="CM4" s="2">
         <v>8</v>
       </c>
+      <c r="CN4" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2051,8 +2066,11 @@
       <c r="CM5" s="2">
         <v>11</v>
       </c>
+      <c r="CN5" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2326,8 +2344,11 @@
       <c r="CM6" s="2">
         <v>11</v>
       </c>
+      <c r="CN6" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2601,8 +2622,11 @@
       <c r="CM7" s="2">
         <v>14</v>
       </c>
+      <c r="CN7" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2876,8 +2900,11 @@
       <c r="CM8" s="2">
         <v>11</v>
       </c>
+      <c r="CN8" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="9" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3151,8 +3178,11 @@
       <c r="CM9" s="2">
         <v>10</v>
       </c>
+      <c r="CN9" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3426,8 +3456,11 @@
       <c r="CM10" s="2">
         <v>17</v>
       </c>
+      <c r="CN10" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="11" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3699,6 +3732,9 @@
         <v>0</v>
       </c>
       <c r="CM11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CN11" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe Fam.xlsx
+++ b/Dataframe Fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2EDCAC-8A6B-482A-BB33-3A01429DB5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F7178E-0AC1-48F4-BDAA-302A1766F555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Lay's</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>24-nov</t>
+  </si>
+  <si>
+    <t>27-nov</t>
   </si>
 </sst>
 </file>
@@ -665,10 +668,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CN11"/>
+  <dimension ref="A1:CO11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CN2" sqref="CN2"/>
+      <selection activeCell="CT15" sqref="CT15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +683,7 @@
     <col min="10" max="82" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -957,8 +960,11 @@
       <c r="CN1" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="CO1" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="2" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1235,8 +1241,11 @@
       <c r="CN2" s="2">
         <v>13</v>
       </c>
+      <c r="CO2" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1513,8 +1522,11 @@
       <c r="CN3" s="2">
         <v>9</v>
       </c>
+      <c r="CO3" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1791,8 +1803,11 @@
       <c r="CN4" s="2">
         <v>8</v>
       </c>
+      <c r="CO4" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2069,8 +2084,11 @@
       <c r="CN5" s="2">
         <v>12</v>
       </c>
+      <c r="CO5" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2347,8 +2365,11 @@
       <c r="CN6" s="2">
         <v>10</v>
       </c>
+      <c r="CO6" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2625,8 +2646,11 @@
       <c r="CN7" s="2">
         <v>15</v>
       </c>
+      <c r="CO7" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2903,8 +2927,11 @@
       <c r="CN8" s="2">
         <v>13</v>
       </c>
+      <c r="CO8" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3181,8 +3208,11 @@
       <c r="CN9" s="2">
         <v>10</v>
       </c>
+      <c r="CO9" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3459,8 +3489,11 @@
       <c r="CN10" s="2">
         <v>16</v>
       </c>
+      <c r="CO10" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="11" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3735,6 +3768,9 @@
         <v>0</v>
       </c>
       <c r="CN11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CO11" s="2">
         <v>0</v>
       </c>
     </row>
